--- a/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_iea15_output.xlsx
+++ b/examples/99_tower_gbf/15mw/50m/outputs_mono/monotow_iea15_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[2.75080266]</t>
+          <t>[2.74873542]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3056,8 +3056,8 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
- 9.21296284]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[9.09546033]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[9.21296284]</t>
+          <t>[9.09546033]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[[0.06431794 0.02668064 0.025      0.025      0.025     ]]</t>
+          <t>[[0.03478679 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.09546033 9.09546033 9.09546033 6.         6.        ]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4628,10 +4628,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         15001.79811854
- 15728.78202234 17991.96803786 22045.93628102 28361.67325187
- 37641.62030854 50939.66078868 59579.87143492 69918.5386986
- 82348.34784436     0.             0.             0.
+          <t>[    0.             0.             0.         13713.86135381
+ 14378.98059597 16448.43581812 20159.90623305 25943.76241843
+ 34464.37295135 46686.17375854 54630.67806861 64137.68566255
+ 75565.95872378     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4882,10 +4882,10 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
- 9.21296284]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5026,10 +5026,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         15001.79811854
- 15728.78202234 17991.96803786 22045.93628102 28361.67325187
- 37641.62030854 50939.66078868 59579.87143492 69918.5386986
- 82348.34784436     0.             0.             0.
+          <t>[    0.             0.             0.         13713.86135381
+ 14378.98059597 16448.43581812 20159.90623305 25943.76241843
+ 34464.37295135 46686.17375854 54630.67806861 64137.68566255
+ 75565.95872378     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5172,10 +5172,10 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -15001.79811854
- -15728.78202234 -17991.96803786 -22045.93628102 -28361.67325187
- -37641.62030854 -50939.66078868 -59579.87143492 -69918.5386986
- -82348.34784436      0.              0.              0.
+          <t>[     0.              0.              0.         -13713.86135381
+ -14378.98059597 -16448.43581812 -20159.90623305 -25943.76241843
+ -34464.37295135 -46686.17375854 -54630.67806861 -64137.68566255
+ -75565.95872378      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5249,26 +5249,26 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[[3.13772621e+10 1.86673540e+13 3.13772621e+10 1.86673540e+13
-  1.95605542e+10 8.04133145e+10]
- [2.82648411e+10 1.32157604e+13 2.82648411e+10 1.32157604e+13
-  1.78805542e+10 8.04133145e+10]
- [2.51524200e+10 8.95883338e+12 2.51524200e+10 8.95883338e+12
-  1.62005542e+10 8.04133145e+10]
- [2.20399990e+10 5.74723972e+12 2.20399990e+10 5.74723972e+12
-  1.45205542e+10 8.04133145e+10]
- [1.89275779e+10 3.43164606e+12 1.89275779e+10 3.43164606e+12
-  1.28405542e+10 8.04133145e+10]
- [1.58151569e+10 1.86271906e+12 1.58151569e+10 1.86271906e+12
-  1.11605542e+10 8.04133145e+10]
- [1.27027358e+10 8.91125406e+11 1.27027358e+10 8.91125406e+11
-  9.48055421e+09 8.04133145e+10]
- [9.59031477e+09 3.67531747e+11 9.59031477e+09 3.67531747e+11
-  7.80055421e+09 8.04133145e+10]
- [6.47789372e+09 1.42604754e+11 6.47789372e+09 1.42604754e+11
-  6.12055421e+09 8.04133145e+10]
- [3.36547267e+09 6.70110954e+10 3.36547267e+09 6.70110954e+10
-  4.44055421e+09 8.04133145e+10]]</t>
+          <t>[[3.12287102e+10 1.86194695e+13 3.12287102e+10 1.86194695e+13
+  1.93645482e+10 7.02280854e+10]
+ [2.81162891e+10 1.31722533e+13 2.81162891e+10 1.31722533e+13
+  1.76845482e+10 7.02280854e+10]
+ [2.50038681e+10 8.91970370e+12 2.50038681e+10 8.91970370e+12
+  1.60045482e+10 7.02280854e+10]
+ [2.18914470e+10 5.71248746e+12 2.18914470e+10 5.71248746e+12
+  1.43245482e+10 7.02280854e+10]
+ [1.87790260e+10 3.40127123e+12 1.87790260e+10 3.40127123e+12
+  1.26445482e+10 7.02280854e+10]
+ [1.56666049e+10 1.83672167e+12 1.56666049e+10 1.83672167e+12
+  1.09645482e+10 7.02280854e+10]
+ [1.25541839e+10 8.69505434e+11 1.25541839e+10 8.69505434e+11
+  9.28454815e+09 7.02280854e+10]
+ [9.44176281e+09 3.50289202e+11 9.44176281e+09 3.50289202e+11
+  7.60454815e+09 7.02280854e+10]
+ [6.32934176e+09 1.29739637e+11 6.32934176e+09 1.29739637e+11
+  5.92454815e+09 7.02280854e+10]
+ [3.21692071e+09 5.85234045e+10 3.21692071e+09 5.85234045e+10
+  4.24454815e+09 7.02280854e+10]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5332,9 +5332,9 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684]</t>
+          <t>[2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -5357,9 +5357,9 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5382,9 +5382,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -5407,9 +5407,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -5432,9 +5432,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -5457,9 +5457,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
- 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
- 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167]</t>
+          <t>[46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -5555,8 +5555,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
- 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075
+ 0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5703,8 +5703,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.83501487 0.83501487 0.83501487 0.61014395 0.61014395 0.61014395
+ 0.57545927 0.50608992 0.43672057 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5727,8 +5727,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5751,8 +5751,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5775,8 +5775,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[8.58297055 8.58297055 8.58297055 6.28176602 6.28176602 6.28176602
+ 5.27022154 3.58483238 2.30355075 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5799,8 +5799,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[8.58297055 8.58297055 8.58297055 6.28176602 6.28176602 6.28176602
+ 5.27022154 3.58483238 2.30355075 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5823,8 +5823,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[17.16594111 17.16594111 17.16594111 12.56353205 12.56353205 12.56353205
+ 10.54044307  7.16966477  4.6071015   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5918,8 +5918,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 8.06364022 7.03182011 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -5943,8 +5943,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02739339 0.02739339 0.02739339 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -6049,9 +6049,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[[  3787067.1877168 ]
- [    22429.54651138]
- [-17731754.23782879]]</t>
+          <t>[[  3787067.18771763]
+ [    22429.54651139]
+ [-15901543.87731441]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6074,8 +6074,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[[-4.78507832e+06]
- [ 5.51191016e+08]
+          <t>[[-4.77260754e+06]
+ [ 5.50058858e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[1060983.55474312 1060983.55474312 2121967.10948624       0.
+          <t>[1034092.48236751 1034092.48236751 2068184.96473503       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[1847602.64575758]</t>
+          <t>[1660509.87874788]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[-3.77929399e+00 -5.11255409e-02  1.15814607e+02]</t>
+          <t>[-4.20511415e+00 -5.68859517e-02  1.23363884e+02]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3.05895449e+10 3.04838084e+10 2.66284788e+08 8.52611923e+02
+          <t>[2.97956046e+10 2.96898682e+10 2.66224874e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -6347,16 +6347,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-15001.79811854]
- [-15728.78202234]
- [-17991.96803786]
- [-22045.93628102]
- [-28361.67325187]
- [-37641.62030854]
- [-50939.66078868]
- [-59579.87143492]
- [-69918.5386986 ]
- [-82348.34784436]
+ [-13713.86135381]
+ [-14378.98059597]
+ [-16448.43581812]
+ [-20159.90623305]
+ [-25943.76241843]
+ [-34464.37295135]
+ [-46686.17375854]
+ [-54630.67806861]
+ [-64137.68566255]
+ [-75565.95872378]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6455,15 +6455,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-217.64883604]
+ [-254.9367969 ]
+ [-280.490989  ]
+ [-300.32925264]
+ [-322.99888336]
+ [-341.50494552]
+ [-357.26470094]
+ [-322.26503795]
+ [-282.66979124]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -6589,24 +6589,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[[-36762102.46039683]
- [-34212057.87036204]
- [-31550624.928418  ]
- [-30315860.86449897]
- [-29071229.2399803 ]
- [-27805751.00013786]
- [-26506052.74047737]
- [-25154888.71281065]
- [-23729217.33778305]
- [-22980183.53829211]
- [-22199834.59550429]
- [-21381917.65403999]
- [-20679398.03047827]
- [-20112816.64526391]
- [-19546298.65643926]
- [-19264552.07770448]
- [-18985798.60020917]
- [-18710038.22395151]]</t>
+          <t>[[-35159833.97487412]
+ [-32550582.51993225]
+ [-29839505.64201334]
+ [-28587131.95211575]
+ [-27325734.16742659]
+ [-26045259.32148965]
+ [-24733449.90608368]
+ [-23374435.75737537]
+ [-21946971.64324993]
+ [-21199965.18393354]
+ [-20424163.72425196]
+ [-19613819.03811658]
+ [-18909301.54771785]
+ [-18329467.89106401]
+ [-17749634.23441018]
+ [-17459717.40608365]
+ [-17169800.57775578]
+ [-16879883.74942904]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6629,24 +6629,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[[ -1537720.9772911 ]
- [-10344028.38104956]
- [-24069463.57460456]
- [  3788474.51615364]
- [  3789127.55630971]
- [  3789790.67767985]
- [  3790484.72275501]
- [  3791238.04967418]
- [  3792090.63111105]
- [  3789959.77703037]
- [  3790242.1666195 ]
- [  3790560.06054691]
- [  3790432.04650592]
- [  3789725.10010488]
- [  3789833.90171922]
- [  3788483.31267322]
- [  3788495.08515897]
- [  3788506.82102689]]</t>
+          <t>[[ -1553226.994429  ]
+ [-10562885.47832369]
+ [-24858394.50359039]
+ [  3788588.38420029]
+ [  3789295.76707285]
+ [  3790010.65283755]
+ [  3790753.48510037]
+ [  3791552.18805732]
+ [  3792446.32772509]
+ [  3790151.49754664]
+ [  3790442.31868285]
+ [  3790767.76578691]
+ [  3790655.57544208]
+ [  3789975.04901599]
+ [  3790094.44177111]
+ [  3788624.71817817]
+ [  3788653.52687714]
+ [  3788681.98912864]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -6669,24 +6669,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[[ -12103.04422792]
- [ -81652.633132  ]
- [-192663.73655757]
- [  22440.57964402]
- [  22445.77902302]
- [  22451.10095577]
- [  22456.71444115]
- [  22462.8515749 ]
- [  22469.84203849]
- [  22452.8291621 ]
- [  22455.16219409]
- [  22457.79403377]
- [  22456.82440519]
- [  22451.14611881]
- [  22452.08611358]
- [  22441.10498717]
- [  22441.21620564]
- [  22441.32799109]]</t>
+          <t>[[ -12214.73747984]
+ [ -83300.77202175]
+ [-198755.3550776 ]
+ [  22441.46704354]
+ [  22447.09492115]
+ [  22452.82840036]
+ [  22458.83311552]
+ [  22465.33741492]
+ [  22472.66731268]
+ [  22454.35601057]
+ [  22456.75895448]
+ [  22459.45377358]
+ [  22458.616889  ]
+ [  22453.16129452]
+ [  22454.19177679]
+ [  22442.25033069]
+ [  22442.50168211]
+ [  22442.75094394]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -6709,24 +6709,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[[  -82328.98227134]
- [-1128969.54837882]
- [-5381643.17010396]
- [-6129509.73374365]
- [-5974701.9537322 ]
- [-5818553.3489057 ]
- [-5661242.11781414]
- [-5502949.10209449]
- [-5343861.62747027]
- [-5264157.73279358]
- [-5184341.00536883]
- [-5104437.85076091]
- [-5024479.2992679 ]
- [-4944458.35966434]
- [-4864358.45028118]
- [-4824302.7302718 ]
- [-4784231.85871858]
- [-4744145.47527652]]</t>
+          <t>[[  -81531.4918077 ]
+ [-1112349.94355848]
+ [-5432434.46970316]
+ [-6117624.12601256]
+ [-5962785.93329426]
+ [-5806616.37441245]
+ [-5649304.83748563]
+ [-5491042.73604432]
+ [-5332027.2897827 ]
+ [-5252382.79899945]
+ [-5172639.53379963]
+ [-5092824.70314699]
+ [-5012970.26844853]
+ [-4933070.9202525 ]
+ [-4853111.92044982]
+ [-4813136.5328089 ]
+ [-4773153.28249535]
+ [-4733164.00915576]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -6749,24 +6749,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[1.05182193e+07]
- [1.44072626e+08]
- [6.80727913e+08]
- [7.69691285e+08]
- [7.43774308e+08]
- [7.17690945e+08]
- [6.91465044e+08]
- [6.65120555e+08]
- [6.38681994e+08]
- [6.25444868e+08]
- [6.12195185e+08]
- [5.98936301e+08]
- [5.85672114e+08]
- [5.72401813e+08]
- [5.59123420e+08]
- [5.52484134e+08]
- [5.45843417e+08]
- [5.39201248e+08]]</t>
+          <t>[[1.04213947e+07]
+ [1.42069031e+08]
+ [6.87714889e+08]
+ [7.68788154e+08]
+ [7.42866959e+08]
+ [7.16780461e+08]
+ [6.90553924e+08]
+ [6.64212616e+08]
+ [6.37782268e+08]
+ [6.24552124e+08]
+ [6.11311136e+08]
+ [5.98062757e+08]
+ [5.84810989e+08]
+ [5.71555221e+08]
+ [5.58293688e+08]
+ [5.51664024e+08]
+ [5.45033797e+08]
+ [5.38403239e+08]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6789,24 +6789,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[1270914.68363491]
- [2931812.02363889]
- [5492365.38173114]
- [9738291.71891986]
- [9738223.48303447]
- [9738154.70281283]
- [9738084.77157193]
- [9738012.95035348]
- [9737938.28626411]
- [9737859.50620817]
- [9737818.11644793]
- [9737774.99666434]
- [9737729.8675591 ]
- [9737691.17491034]
- [9737659.9872372 ]
- [9737634.47454583]
- [9737630.3129701 ]
- [9737626.23079931]]</t>
+          <t>[[1317736.00454978]
+ [3013868.54147721]
+ [5575478.80198247]
+ [9738159.74181933]
+ [9738092.10504367]
+ [9738023.98185469]
+ [9737954.82936263]
+ [9737883.98565472]
+ [9737810.59376236]
+ [9737733.50650475]
+ [9737693.16644692]
+ [9737651.27174693]
+ [9737607.5120344 ]
+ [9737569.46745366]
+ [9737538.15613551]
+ [9737506.84501868]
+ [9737491.18953585]
+ [9737475.53410326]]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -6858,11 +6858,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 8.06364022 7.03182011 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -6886,11 +6886,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02739339 0.02739339 0.02739339 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -7038,11 +7038,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684
- 1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 0.83501487 0.83501487 0.83501487 0.61014395 0.61014395 0.61014395
+ 0.57545927 0.50608992 0.43672057 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
- 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -7092,11 +7092,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
- 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -7119,11 +7119,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
-  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+  8.58297055  8.58297055  8.58297055  6.28176602  6.28176602  6.28176602
+  5.27022154  3.58483238  2.30355075  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -7146,11 +7146,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
-  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+  8.58297055  8.58297055  8.58297055  6.28176602  6.28176602  6.28176602
+  5.27022154  3.58483238  2.30355075  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7173,11 +7173,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
- 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
- 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167
- 19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 17.16594111 17.16594111 17.16594111 12.56353205 12.56353205 12.56353205
+ 10.54044307  7.16966477  4.6071015   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7200,36 +7200,36 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-3.67621025e+07]
- [-3.42120579e+07]
- [-3.15506249e+07]
- [-3.03158609e+07]
- [-2.90712292e+07]
- [-2.78057510e+07]
- [-2.65060527e+07]
- [-2.51548887e+07]
- [-2.37292173e+07]
- [-2.29801835e+07]
- [-2.21998346e+07]
- [-2.13819177e+07]
- [-2.06793980e+07]
- [-2.01128166e+07]
- [-1.95462987e+07]
- [-1.92645521e+07]
- [-1.89857986e+07]
- [-1.87100382e+07]
- [-1.65383295e+07]
- [-1.53458629e+07]
- [-1.41530380e+07]
- [-1.31807071e+07]
- [-1.22080305e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-3.51598340e+07]
+ [-3.25505825e+07]
+ [-2.98395056e+07]
+ [-2.85871320e+07]
+ [-2.73257342e+07]
+ [-2.60452593e+07]
+ [-2.47334499e+07]
+ [-2.33744358e+07]
+ [-2.19469716e+07]
+ [-2.11999652e+07]
+ [-2.04241637e+07]
+ [-1.96138190e+07]
+ [-1.89093015e+07]
+ [-1.83294679e+07]
+ [-1.77496342e+07]
+ [-1.74597174e+07]
+ [-1.71698006e+07]
+ [-1.68798837e+07]
+ [-1.50811918e+07]
+ [-1.42615192e+07]
+ [-1.34414489e+07]
+ [-1.25837003e+07]
+ [-1.17255675e+07]
+ [-1.08670623e+07]
+ [-1.03808502e+07]
+ [-9.95289656e+06]
+ [-9.58350155e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7252,36 +7252,36 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[-1.53772098e+06]
- [-1.03440284e+07]
- [-2.40694636e+07]
- [ 3.78847452e+06]
- [ 3.78912756e+06]
- [ 3.78979068e+06]
- [ 3.79048472e+06]
- [ 3.79123805e+06]
- [ 3.79209063e+06]
- [ 3.78995978e+06]
- [ 3.79024217e+06]
- [ 3.79056006e+06]
- [ 3.79043205e+06]
- [ 3.78972510e+06]
- [ 3.78983390e+06]
- [ 3.78848331e+06]
- [ 3.78849509e+06]
- [ 3.78850682e+06]
- [ 3.79439498e+06]
- [ 3.79633893e+06]
- [ 3.79807091e+06]
- [ 3.79816621e+06]
- [ 3.80066484e+06]
- [ 3.80255268e+06]
- [ 3.79632309e+06]
- [ 3.79589011e+06]
- [ 3.79530823e+06]
- [ 3.79233322e+06]
- [ 3.79230694e+06]
- [ 5.17914753e+03]]</t>
+          <t>[[-1.55322699e+06]
+ [-1.05628855e+07]
+ [-2.48583945e+07]
+ [ 3.78858838e+06]
+ [ 3.78929577e+06]
+ [ 3.79001065e+06]
+ [ 3.79075349e+06]
+ [ 3.79155219e+06]
+ [ 3.79244633e+06]
+ [ 3.79015150e+06]
+ [ 3.79044232e+06]
+ [ 3.79076777e+06]
+ [ 3.79065558e+06]
+ [ 3.78997505e+06]
+ [ 3.79009444e+06]
+ [ 3.78862472e+06]
+ [ 3.78865353e+06]
+ [ 3.78868199e+06]
+ [ 3.79248315e+06]
+ [ 3.79398433e+06]
+ [ 3.79531867e+06]
+ [ 3.79747633e+06]
+ [ 3.79940516e+06]
+ [ 3.80086275e+06]
+ [ 3.79538144e+06]
+ [ 3.79468880e+06]
+ [ 3.79387621e+06]
+ [ 3.79130387e+06]
+ [ 3.79127593e+06]
+ [ 4.14806797e+03]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7304,36 +7304,36 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[-1.21030442e+04]
- [-8.16526331e+04]
- [-1.92663737e+05]
- [ 2.24405796e+04]
- [ 2.24457790e+04]
- [ 2.24511010e+04]
- [ 2.24567144e+04]
- [ 2.24628516e+04]
- [ 2.24698420e+04]
- [ 2.24528292e+04]
- [ 2.24551622e+04]
- [ 2.24577940e+04]
- [ 2.24568244e+04]
- [ 2.24511461e+04]
- [ 2.24520861e+04]
- [ 2.24411050e+04]
- [ 2.24412162e+04]
- [ 2.24413280e+04]
- [ 2.24902354e+04]
- [ 2.25078912e+04]
- [ 2.25242430e+04]
- [ 2.25279615e+04]
- [ 2.25549454e+04]
- [ 2.25781415e+04]
- [ 2.25216368e+04]
- [ 2.25206736e+04]
- [ 2.25192804e+04]
- [ 2.24902548e+04]
- [ 2.24932857e+04]
- [ 6.49574423e+01]]</t>
+          <t>[[-1.22147375e+04]
+ [-8.33007720e+04]
+ [-1.98755355e+05]
+ [ 2.24414670e+04]
+ [ 2.24470949e+04]
+ [ 2.24528284e+04]
+ [ 2.24588331e+04]
+ [ 2.24653374e+04]
+ [ 2.24726673e+04]
+ [ 2.24543560e+04]
+ [ 2.24567590e+04]
+ [ 2.24594538e+04]
+ [ 2.24586169e+04]
+ [ 2.24531613e+04]
+ [ 2.24541918e+04]
+ [ 2.24422503e+04]
+ [ 2.24425017e+04]
+ [ 2.24427509e+04]
+ [ 2.24743563e+04]
+ [ 2.24879749e+04]
+ [ 2.25005604e+04]
+ [ 2.25215196e+04]
+ [ 2.25423328e+04]
+ [ 2.25602309e+04]
+ [ 2.25109541e+04]
+ [ 2.25069649e+04]
+ [ 2.25028759e+04]
+ [ 2.24783987e+04]
+ [ 2.24814111e+04]
+ [ 5.30820000e+01]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7356,36 +7356,36 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[-8.23289823e+04]
- [-1.12896955e+06]
- [-5.38164317e+06]
- [-6.12950973e+06]
- [-5.97470195e+06]
- [-5.81855335e+06]
- [-5.66124212e+06]
- [-5.50294910e+06]
- [-5.34386163e+06]
- [-5.26415773e+06]
- [-5.18434101e+06]
- [-5.10443785e+06]
- [-5.02447930e+06]
- [-4.94445836e+06]
- [-4.86435845e+06]
- [-4.82430273e+06]
- [-4.78423186e+06]
- [-4.74414548e+06]
- [-4.43425838e+06]
- [-4.11967193e+06]
- [-3.80171732e+06]
- [-3.33971105e+06]
- [-2.86792515e+06]
- [-2.39010787e+06]
- [-2.10238741e+06]
- [-1.81338714e+06]
- [-1.52273657e+06]
- [-1.32822451e+06]
- [-1.13310572e+06]
- [-6.40844583e-04]]</t>
+          <t>[[-8.15314918e+04]
+ [-1.11234994e+06]
+ [-5.43243447e+06]
+ [-6.11762413e+06]
+ [-5.96278593e+06]
+ [-5.80661637e+06]
+ [-5.64930484e+06]
+ [-5.49104274e+06]
+ [-5.33202729e+06]
+ [-5.25238280e+06]
+ [-5.17263953e+06]
+ [-5.09282470e+06]
+ [-5.01297027e+06]
+ [-4.93307092e+06]
+ [-4.85311192e+06]
+ [-4.81313653e+06]
+ [-4.77315328e+06]
+ [-4.73316401e+06]
+ [-4.42409781e+06]
+ [-4.10980582e+06]
+ [-3.79142415e+06]
+ [-3.32908732e+06]
+ [-2.85895636e+06]
+ [-2.38404006e+06]
+ [-2.09831122e+06]
+ [-1.81133133e+06]
+ [-1.52221133e+06]
+ [-1.32813595e+06]
+ [-1.13293218e+06]
+ [-5.23628265e-04]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7408,36 +7408,36 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 1.05182193e+07]
- [ 1.44072626e+08]
- [ 6.80727913e+08]
- [ 7.69691285e+08]
- [ 7.43774308e+08]
- [ 7.17690945e+08]
- [ 6.91465044e+08]
- [ 6.65120555e+08]
- [ 6.38681994e+08]
- [ 6.25444868e+08]
- [ 6.12195185e+08]
- [ 5.98936301e+08]
- [ 5.85672114e+08]
- [ 5.72401813e+08]
- [ 5.59123420e+08]
- [ 5.52484134e+08]
- [ 5.45843417e+08]
- [ 5.39201248e+08]
- [ 4.87989486e+08]
- [ 4.36277050e+08]
- [ 3.84232850e+08]
- [ 3.09158425e+08]
- [ 2.33250867e+08]
- [ 1.56976835e+08]
- [ 1.11260688e+08]
- [ 6.55745130e+07]
- [ 1.99518728e+07]
- [-1.03753163e+07]
- [-4.06137164e+07]
- [ 5.10925072e-02]]</t>
+          <t>[[ 1.04213947e+07]
+ [ 1.42069031e+08]
+ [ 6.87714889e+08]
+ [ 7.68788154e+08]
+ [ 7.42866959e+08]
+ [ 7.16780461e+08]
+ [ 6.90553924e+08]
+ [ 6.64212616e+08]
+ [ 6.37782268e+08]
+ [ 6.24552124e+08]
+ [ 6.11311136e+08]
+ [ 5.98062757e+08]
+ [ 5.84810989e+08]
+ [ 5.71555221e+08]
+ [ 5.58293688e+08]
+ [ 5.51664024e+08]
+ [ 5.45033797e+08]
+ [ 5.38403239e+08]
+ [ 4.87287902e+08]
+ [ 4.35609181e+08]
+ [ 3.83515503e+08]
+ [ 3.08382749e+08]
+ [ 2.32596669e+08]
+ [ 1.56536722e+08]
+ [ 1.10955879e+08]
+ [ 6.53983325e+07]
+ [ 1.98722374e+07]
+ [-1.04165268e+07]
+ [-4.06287839e+07]
+ [ 4.09205188e-02]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7460,35 +7460,35 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[[1270914.68363491]
- [2931812.02363889]
- [5492365.38173114]
- [9738291.71891986]
- [9738223.48303447]
- [9738154.70281283]
- [9738084.77157193]
- [9738012.95035348]
- [9737938.28626411]
- [9737859.50620817]
- [9737818.11644793]
- [9737774.99666434]
- [9737729.8675591 ]
- [9737691.17491034]
- [9737659.9872372 ]
- [9737634.47454583]
- [9737630.3129701 ]
- [9737626.23079931]
- [9738338.05357142]
- [9738217.80656632]
- [9738097.42210924]
- [9739057.90009782]
- [9738885.45707935]
- [9738712.95886255]
- [9738696.98055445]
- [9738788.87033338]
- [9738911.07638572]
- [9738933.45190324]
- [9738864.3533933 ]
+          <t>[[1317736.00454978]
+ [3013868.54147721]
+ [5575478.80198247]
+ [9738159.74181933]
+ [9738092.10504367]
+ [9738023.98185469]
+ [9737954.82936263]
+ [9737883.98565472]
+ [9737810.59376236]
+ [9737733.50650475]
+ [9737693.16644692]
+ [9737651.27174693]
+ [9737607.5120344 ]
+ [9737569.46745366]
+ [9737538.15613551]
+ [9737506.84501868]
+ [9737491.18953585]
+ [9737475.53410326]
+ [9738886.85794557]
+ [9738766.51366298]
+ [9738645.93498784]
+ [9739254.07581455]
+ [9739081.37550163]
+ [9738908.60393066]
+ [9738867.63041548]
+ [9739067.58245808]
+ [9739347.45660073]
+ [9739476.12679452]
+ [9739406.89068819]
  [      0.        ]]</t>
         </is>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2464111.67540486]</t>
+          <t>[2103960.1834303]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[896268.16233795]</t>
+          <t>[709175.39532825]</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3409111.67540486]</t>
+          <t>[3048960.1834303]</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[227.27411169]</t>
+          <t>[203.26401223]</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[896268.16233795]</t>
+          <t>[709175.39532825]</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2464111.67540486]</t>
+          <t>[2103960.1834303]</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[2464111.67540486]</t>
+          <t>[2103960.1834303]</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8301,8 +8301,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[217.64883604 254.9367969  280.490989   300.32925264 322.99888336
+ 341.50494552 357.26470094 322.26503795 282.66979124 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8518,8 +8518,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 8.06364022 7.03182011 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -8614,8 +8614,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[217.64883604 254.9367969  280.490989   300.32925264 322.99888336
+ 341.50494552 357.26470094 322.26503795 282.66979124 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8756,8 +8756,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-217.64883604 -254.9367969  -280.490989   -300.32925264 -322.99888336
+ -341.50494552 -357.26470094 -322.26503795 -282.66979124 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -8831,8 +8831,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02739339 0.02739339 0.02739339 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8973,8 +8973,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.83501487 0.83501487 0.83501487 0.61014395 0.61014395 0.61014395
+ 0.57545927 0.50608992 0.43672057 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -8997,8 +8997,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9021,8 +9021,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -9045,8 +9045,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[8.58297055 8.58297055 8.58297055 6.28176602 6.28176602 6.28176602
+ 5.27022154 3.58483238 2.30355075 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -9069,8 +9069,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
- 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
+          <t>[8.58297055 8.58297055 8.58297055 6.28176602 6.28176602 6.28176602
+ 5.27022154 3.58483238 2.30355075 1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9093,8 +9093,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[17.16594111 17.16594111 17.16594111 12.56353205 12.56353205 12.56353205
+ 10.54044307  7.16966477  4.6071015   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9212,17 +9212,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[[-16539287.58040056]
- [-15346462.67444753]
- [-14153379.63914924]
- [-13180703.06846742]
- [-12207691.08672294]
- [-11234399.6147994 ]
- [-10692773.72291409]
- [-10198366.94882871]
- [ -9751211.14539441]
- [ -9468851.22077098]
- [ -9186467.52414185]
+          <t>[[-15081871.29716898]
+ [-14261800.96383257]
+ [-13441443.32348197]
+ [-12583310.44616338]
+ [-11724805.25854203]
+ [-10865990.23893817]
+ [-10379882.59262974]
+ [ -9952333.60973134]
+ [ -9583397.5587992 ]
+ [ -9356975.49637412]
+ [ -9130529.66194345]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -9246,18 +9246,18 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[[3788169.15508457]
- [3790160.43296193]
- [3791956.17103431]
- [3793289.3603408 ]
- [3795957.94971951]
- [3798033.70156807]
- [3793902.89775066]
- [3793765.38766629]
- [3793497.36877365]
- [3791265.40767432]
- [3791308.88041324]
- [3791283.83446936]]</t>
+          <t>[[3787924.18153313]
+ [3789455.8697029 ]
+ [3790837.09331288]
+ [3792876.13959603]
+ [3794932.95924449]
+ [3796532.56117673]
+ [3793002.6798887 ]
+ [3792662.23788477]
+ [3792224.43922494]
+ [3790362.48747561]
+ [3790405.6927069 ]
+ [3790380.52619074]]</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -9280,18 +9280,18 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[[22439.08532454]
- [22456.90175268]
- [22473.54970407]
- [22487.20057509]
- [22515.12298304]
- [22539.40868259]
- [22500.6428626 ]
- [22502.00945209]
- [22503.08429031]
- [22480.50900735]
- [22483.99932634]
- [22487.05112791]]</t>
+          <t>[[22436.93495206]
+ [22450.63215853]
+ [22463.4311831 ]
+ [22483.13846863]
+ [22504.6569556 ]
+ [22523.37750977]
+ [22490.51749902]
+ [22489.36707099]
+ [22488.28415031]
+ [22469.90516814]
+ [22473.39560752]
+ [22476.44815071]]</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -9314,18 +9314,18 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[[-4494673.31266918]
- [-4198174.81897739]
- [-3896901.50614116]
- [-3456581.20860309]
- [-3004525.01991668]
- [-2544477.80489859]
- [-2266303.93262541]
- [-1986131.12054568]
- [-1703549.46353993]
- [-1513941.50316532]
- [-1323375.42128369]
- [-1132156.51705164]]</t>
+          <t>[[-4482159.35537659]
+ [-4185443.71394312]
+ [-3883580.35089335]
+ [-3443230.69944407]
+ [-2993303.17905812]
+ [-2536796.12441203]
+ [-2261080.43966556]
+ [-1983428.59618223]
+ [-1702883.59494754]
+ [-1514033.13147033]
+ [-1323672.30528481]
+ [-1132156.51714658]]</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -9348,17 +9348,17 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[[ 5.02350550e+08]
- [ 4.52829848e+08]
- [ 4.02797757e+08]
- [ 3.30317893e+08]
- [ 2.56742113e+08]
- [ 1.82541049e+08]
- [ 1.37925304e+08]
- [ 9.32443781e+07]
- [ 4.85244495e+07]
- [ 1.87348666e+07]
- [-1.10142908e+07]
+          <t>[[ 5.01211686e+08]
+ [ 4.51664367e+08]
+ [ 4.01564433e+08]
+ [ 3.29066852e+08]
+ [ 2.55678692e+08]
+ [ 1.81781448e+08]
+ [ 1.37366016e+08]
+ [ 9.28832715e+07]
+ [ 4.83289001e+07]
+ [ 1.86198883e+07]
+ [-1.10666591e+07]
  [-4.06893978e+07]]</t>
         </is>
       </c>
@@ -9382,18 +9382,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[[9738338.29072285]
- [9738217.90328689]
- [9738097.48266117]
- [9739057.96069496]
- [9738885.45636728]
- [9738712.89866848]
- [9738696.8621703 ]
- [9738788.74933497]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304612]]</t>
+          <t>[[9738887.19529079]
+ [9738766.61362726]
+ [9738645.97643854]
+ [9739254.07470132]
+ [9739081.29700297]
+ [9738908.45047728]
+ [9738867.40157646]
+ [9739067.34757806]
+ [9739347.29823853]
+ [9739476.09501584]
+ [9739406.90494468]
+ [9739337.70859249]]</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -9556,15 +9556,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-217.64883604]
+ [-254.9367969 ]
+ [-280.490989  ]
+ [-300.32925264]
+ [-322.99888336]
+ [-341.50494552]
+ [-357.26470094]
+ [-322.26503795]
+ [-282.66979124]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -9591,7 +9591,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[896268.16233795]</t>
+          <t>[709175.39532825]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[60.88686497]</t>
+          <t>[64.07234874]</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[4.94771853e+09 4.94771853e+09 1.30972827e+07 0.00000000e+00
+          <t>[4.15377832e+09 4.15377832e+09 1.30373691e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -9661,8 +9661,8 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
- 9.21296284]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -9751,8 +9751,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
- 9.21296284]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -10014,7 +10014,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1905533.19795188]</t>
+          <t>[1951240.95312578]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[4676980.86317517]</t>
+          <t>[4757514.34893234]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[54.96004263]</t>
+          <t>[55.]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[7.69588717e+09 7.69588717e+09 4.24419286e+07 0.00000000e+00
+          <t>[7.88985279e+09 7.88985279e+09 3.96952311e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[896268.16233795]</t>
+          <t>[709175.39532825]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2464111.67540486]</t>
+          <t>[2103960.1834303]</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[9.51547331]</t>
+          <t>[9.09546033]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.09546033 9.09546033 9.09546033 6.         6.        ]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[0.04549929 0.02584032 0.025      0.025     ]</t>
+          <t>[0.02739339 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.09546033 9.09546033 9.09546033 6.         6.        ]</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[0.04549929 0.02584032 0.025      0.025     ]</t>
+          <t>[0.02739339 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -10651,10 +10651,10 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         15001.79811854
- 15728.78202234 17991.96803786 22045.93628102 28361.67325187
- 37641.62030854 50939.66078868 59579.87143492 69918.5386986
- 82348.34784436     0.             0.             0.
+          <t>[    0.             0.             0.         13713.86135381
+ 14378.98059597 16448.43581812 20159.90623305 25943.76241843
+ 34464.37295135 46686.17375854 54630.67806861 64137.68566255
+ 75565.95872378     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10905,10 +10905,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         15001.79811854
- 15728.78202234 17991.96803786 22045.93628102 28361.67325187
- 37641.62030854 50939.66078868 59579.87143492 69918.5386986
- 82348.34784436     0.             0.             0.
+          <t>[    0.             0.             0.         13713.86135381
+ 14378.98059597 16448.43581812 20159.90623305 25943.76241843
+ 34464.37295135 46686.17375854 54630.67806861 64137.68566255
+ 75565.95872378     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11290,10 +11290,10 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -15001.79811854
- -15728.78202234 -17991.96803786 -22045.93628102 -28361.67325187
- -37641.62030854 -50939.66078868 -59579.87143492 -69918.5386986
- -82348.34784436      0.              0.              0.
+          <t>[     0.              0.              0.         -13713.86135381
+ -14378.98059597 -16448.43581812 -20159.90623305 -25943.76241843
+ -34464.37295135 -46686.17375854 -54630.67806861 -64137.68566255
+ -75565.95872378      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>[0.12999999]</t>
+          <t>[0.13]</t>
         </is>
       </c>
       <c r="E441" t="inlineStr"/>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[0.13048748]</t>
+          <t>[0.13048316]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[0.12999999 0.13048748 0.68465173 0.72612919 0.7721206  1.38325568]</t>
+          <t>[0.13       0.13048316 0.67035397 0.74330009 0.8033508  1.37434524]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[0.13048748 0.7721206  1.49260944]</t>
+          <t>[0.13048316 0.8033508  1.46702701]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[0.12999999 0.72612919 1.38325568]</t>
+          <t>[0.13       0.74330009 1.37434524]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[3.87065273 0.         0.        ]</t>
+          <t>[3.71334085 0.         0.        ]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11505,12 +11505,9 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[[ 6.37852692e-01  6.75647863e-01 -1.16015607e+00  1.95522527e+00
-  -1.10856975e+00]
- [-3.96774585e+00 -2.54763943e+00  1.75312187e+01 -1.39818114e+01
-   3.96597803e+00]
- [-8.13973461e+00 -4.55887154e-02  5.74924652e+01 -6.22713918e+01
-   1.39642500e+01]]</t>
+          <t>[[  0.63873674   0.74185907  -0.77110272   0.9520133   -0.5615064 ]
+ [ -4.09242899  -2.34260864  20.30525247 -20.9233288    8.05311396]
+ [ -7.23423985   0.08517119  46.97583109 -49.1101608   10.28339838]]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11529,9 +11526,9 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[[  0.63489378   0.67304322  -1.15007881   1.94336902  -1.10122721]
- [ -3.96613777  -2.65694484  17.09061008 -13.92110066   4.4535732 ]
- [ -7.06146255  -0.8545939   46.43521883 -46.22191548   8.70275309]]</t>
+          <t>[[  0.63562386   0.73924942  -0.75785341   0.93332916  -0.55034904]
+ [ -4.09691022  -2.49272044  20.06321907 -21.44905618   8.97546777]
+ [ -6.48992435  -0.56993771  40.0835268  -39.76593542   7.74227068]]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11550,7 +11547,7 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[[ -0.82629866  -0.04013285  11.31152186 -14.08455954   4.63946918]
+          <t>[[ -0.77537123   0.66239835  12.35979217 -19.4320826    8.18526331]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -11571,9 +11568,9 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[[ 0.79729424  0.12420555  0.0519717   0.07877999 -0.05225147]
- [ 4.25572501  0.51869209 -7.17934793  4.45084513 -1.0459143 ]
- [-1.64341687  0.11857464  7.11183187 -5.87734395  1.29035431]]</t>
+          <t>[[ 0.79762945  0.14228133  0.17694767 -0.1479436   0.03108516]
+ [ 4.43705398  0.41941641 -8.43159616  6.33041757 -1.7552918 ]
+ [-1.95416421  0.12704294  7.69348403 -6.21030279  1.34394002]]</t>
         </is>
       </c>
       <c r="E450" t="inlineStr"/>
@@ -11592,9 +11589,9 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[[ 0.79583304  0.12401799  0.05465244  0.07700093 -0.05150441]
- [ 3.58276262  0.45081784 -5.68030411  3.52199422 -0.87527057]
- [-2.17135687  0.045466    8.18786571 -6.39250102  1.33052618]]</t>
+          <t>[[ 0.7961596   0.14219682  0.18067116 -0.15153713  0.03250955]
+ [ 3.5911652   0.35662427 -6.43632776  4.93450336 -1.44596507]
+ [-2.56930704  0.06622366  9.06160109 -7.04953066  1.49101294]]</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -11613,7 +11610,7 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[[-0.27995801  0.07542865  3.664238   -3.30631382  0.84660518]
+          <t>[[-0.06863773  0.21392496  3.53851576 -3.81253105  1.12872805]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11638,37 +11635,37 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[[4.90080483e-05]
- [3.99571335e-04]
- [1.08061428e-03]
- [8.27764050e-03]
- [2.34718347e-02]
- [4.55683073e-02]
- [7.43344929e-02]
- [1.09536337e-01]
- [1.50938507e-01]
- [1.98304602e-01]
- [2.24149907e-01]
- [2.51397171e-01]
- [2.80016662e-01]
- [3.09978745e-01]
- [3.41254032e-01]
- [3.73813222e-01]
- [3.90567901e-01]
- [4.07643264e-01]
- [4.25045831e-01]
- [5.82414122e-01]
- [7.81247606e-01]
- [1.01715154e+00]
- [1.43402695e+00]
- [1.94460822e+00]
- [2.52589184e+00]
- [2.90044620e+00]
- [3.29134857e+00]
- [3.69497828e+00]
- [3.96738969e+00]
- [4.23856453e+00]
- [4.50659200e+00]]</t>
+          <t>[[4.97376620e-05]
+ [4.11571899e-04]
+ [1.13881802e-03]
+ [8.90516302e-03]
+ [2.50980673e-02]
+ [4.86783118e-02]
+ [7.93966588e-02]
+ [1.17002286e-01]
+ [1.61243024e-01]
+ [2.11865601e-01]
+ [2.39490585e-01]
+ [2.68615676e-01]
+ [2.99209038e-01]
+ [3.31238817e-01]
+ [3.64673190e-01]
+ [3.99480339e-01]
+ [4.17388719e-01]
+ [4.35628341e-01]
+ [4.54195222e-01]
+ [6.23581860e-01]
+ [8.39394218e-01]
+ [1.09670760e+00]
+ [1.53995002e+00]
+ [2.06511718e+00]
+ [2.65207719e+00]
+ [3.02690385e+00]
+ [3.41718501e+00]
+ [3.82108473e+00]
+ [4.09425571e+00]
+ [4.36587901e+00]
+ [4.63357258e+00]]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11691,7 +11688,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>[4.506592]</t>
+          <t>[4.63357258]</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -11714,24 +11711,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>[[-36762102.46039683]
- [-34212057.87036204]
- [-31550624.928418  ]
- [-30315860.86449897]
- [-29071229.2399803 ]
- [-27805751.00013786]
- [-26506052.74047737]
- [-25154888.71281065]
- [-23729217.33778305]
- [-22980183.53829211]
- [-22199834.59550429]
- [-21381917.65403999]
- [-20679398.03047827]
- [-20112816.64526391]
- [-19546298.65643926]
- [-19264552.07770448]
- [-18985798.60020917]
- [-18710038.22395151]]</t>
+          <t>[[-35159833.97487412]
+ [-32550582.51993225]
+ [-29839505.64201334]
+ [-28587131.95211575]
+ [-27325734.16742659]
+ [-26045259.32148965]
+ [-24733449.90608368]
+ [-23374435.75737537]
+ [-21946971.64324993]
+ [-21199965.18393354]
+ [-20424163.72425196]
+ [-19613819.03811658]
+ [-18909301.54771785]
+ [-18329467.89106401]
+ [-17749634.23441018]
+ [-17459717.40608365]
+ [-17169800.57775578]
+ [-16879883.74942904]]</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -11754,24 +11751,24 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>[[ -1537720.9772911 ]
- [-10344028.38104956]
- [-24069463.57460456]
- [  3788474.51615364]
- [  3789127.55630971]
- [  3789790.67767985]
- [  3790484.72275501]
- [  3791238.04967418]
- [  3792090.63111105]
- [  3789959.77703037]
- [  3790242.1666195 ]
- [  3790560.06054691]
- [  3790432.04650592]
- [  3789725.10010488]
- [  3789833.90171922]
- [  3788483.31267322]
- [  3788495.08515897]
- [  3788506.82102689]]</t>
+          <t>[[ -1553226.994429  ]
+ [-10562885.47832369]
+ [-24858394.50359039]
+ [  3788588.38420029]
+ [  3789295.76707285]
+ [  3790010.65283755]
+ [  3790753.48510037]
+ [  3791552.18805732]
+ [  3792446.32772509]
+ [  3790151.49754664]
+ [  3790442.31868285]
+ [  3790767.76578691]
+ [  3790655.57544208]
+ [  3789975.04901599]
+ [  3790094.44177111]
+ [  3788624.71817817]
+ [  3788653.52687714]
+ [  3788681.98912864]]</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
@@ -11794,24 +11791,24 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>[[ -12103.04422792]
- [ -81652.633132  ]
- [-192663.73655757]
- [  22440.57964402]
- [  22445.77902302]
- [  22451.10095577]
- [  22456.71444115]
- [  22462.8515749 ]
- [  22469.84203849]
- [  22452.8291621 ]
- [  22455.16219409]
- [  22457.79403377]
- [  22456.82440519]
- [  22451.14611881]
- [  22452.08611358]
- [  22441.10498717]
- [  22441.21620564]
- [  22441.32799109]]</t>
+          <t>[[ -12214.73747984]
+ [ -83300.77202175]
+ [-198755.3550776 ]
+ [  22441.46704354]
+ [  22447.09492115]
+ [  22452.82840036]
+ [  22458.83311552]
+ [  22465.33741492]
+ [  22472.66731268]
+ [  22454.35601057]
+ [  22456.75895448]
+ [  22459.45377358]
+ [  22458.616889  ]
+ [  22453.16129452]
+ [  22454.19177679]
+ [  22442.25033069]
+ [  22442.50168211]
+ [  22442.75094394]]</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -11834,24 +11831,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>[[  -82328.98227134]
- [-1128969.54837882]
- [-5381643.17010396]
- [-6129509.73374365]
- [-5974701.9537322 ]
- [-5818553.3489057 ]
- [-5661242.11781414]
- [-5502949.10209449]
- [-5343861.62747027]
- [-5264157.73279358]
- [-5184341.00536883]
- [-5104437.85076091]
- [-5024479.2992679 ]
- [-4944458.35966434]
- [-4864358.45028118]
- [-4824302.7302718 ]
- [-4784231.85871858]
- [-4744145.47527652]]</t>
+          <t>[[  -81531.4918077 ]
+ [-1112349.94355848]
+ [-5432434.46970316]
+ [-6117624.12601256]
+ [-5962785.93329426]
+ [-5806616.37441245]
+ [-5649304.83748563]
+ [-5491042.73604432]
+ [-5332027.2897827 ]
+ [-5252382.79899945]
+ [-5172639.53379963]
+ [-5092824.70314699]
+ [-5012970.26844853]
+ [-4933070.9202525 ]
+ [-4853111.92044982]
+ [-4813136.5328089 ]
+ [-4773153.28249535]
+ [-4733164.00915576]]</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -11874,24 +11871,24 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[[1.05182193e+07]
- [1.44072626e+08]
- [6.80727913e+08]
- [7.69691285e+08]
- [7.43774308e+08]
- [7.17690945e+08]
- [6.91465044e+08]
- [6.65120555e+08]
- [6.38681994e+08]
- [6.25444868e+08]
- [6.12195185e+08]
- [5.98936301e+08]
- [5.85672114e+08]
- [5.72401813e+08]
- [5.59123420e+08]
- [5.52484134e+08]
- [5.45843417e+08]
- [5.39201248e+08]]</t>
+          <t>[[1.04213947e+07]
+ [1.42069031e+08]
+ [6.87714889e+08]
+ [7.68788154e+08]
+ [7.42866959e+08]
+ [7.16780461e+08]
+ [6.90553924e+08]
+ [6.64212616e+08]
+ [6.37782268e+08]
+ [6.24552124e+08]
+ [6.11311136e+08]
+ [5.98062757e+08]
+ [5.84810989e+08]
+ [5.71555221e+08]
+ [5.58293688e+08]
+ [5.51664024e+08]
+ [5.45033797e+08]
+ [5.38403239e+08]]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11914,24 +11911,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[[1270914.68363491]
- [2931812.02363889]
- [5492365.38173114]
- [9738291.71891986]
- [9738223.48303447]
- [9738154.70281283]
- [9738084.77157193]
- [9738012.95035348]
- [9737938.28626411]
- [9737859.50620817]
- [9737818.11644793]
- [9737774.99666434]
- [9737729.8675591 ]
- [9737691.17491034]
- [9737659.9872372 ]
- [9737634.47454583]
- [9737630.3129701 ]
- [9737626.23079931]]</t>
+          <t>[[1317736.00454978]
+ [3013868.54147721]
+ [5575478.80198247]
+ [9738159.74181933]
+ [9738092.10504367]
+ [9738023.98185469]
+ [9737954.82936263]
+ [9737883.98565472]
+ [9737810.59376236]
+ [9737733.50650475]
+ [9737693.16644692]
+ [9737651.27174693]
+ [9737607.5120344 ]
+ [9737569.46745366]
+ [9737538.15613551]
+ [9737506.84501868]
+ [9737491.18953585]
+ [9737475.53410326]]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -11954,9 +11951,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>[[ 3.78847452e+06]
- [ 2.24405796e+04]
- [-3.15506249e+07]]</t>
+          <t>[[ 3.78858838e+06]
+ [ 2.24414670e+04]
+ [-2.98395056e+07]]</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -11979,9 +11976,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>[[-6.28279822e+06]
- [ 7.95417772e+08]
- [ 9.73829172e+06]]</t>
+          <t>[[-6.27094074e+06]
+ [ 7.94518443e+08]
+ [ 9.73815974e+06]]</t>
         </is>
       </c>
       <c r="E462" t="inlineStr"/>
@@ -12033,11 +12030,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
- 8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 8.06364022 7.03182011 6.         6.         6.
  6.        ]</t>
         </is>
       </c>
@@ -12061,11 +12058,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02739339 0.02739339 0.02739339 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12164,11 +12161,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
- 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684
- 1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361 2.27417361
+ 0.83501487 0.83501487 0.83501487 0.61014395 0.61014395 0.61014395
+ 0.57545927 0.50608992 0.43672057 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12191,11 +12188,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
- 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12218,11 +12215,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
- 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
- 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943 1.29535943
+ 0.47447868 0.47447868 0.47447868 0.34657473 0.34657473 0.34657473
+ 0.32689237 0.28752772 0.2481632  0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12245,11 +12242,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
- 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
- 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167
- 19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809 46.26483809
+ 17.16594111 17.16594111 17.16594111 12.56353205 12.56353205 12.56353205
+ 10.54044307  7.16966477  4.6071015   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12272,11 +12269,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
-  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+  8.58297055  8.58297055  8.58297055  6.28176602  6.28176602  6.28176602
+  5.27022154  3.58483238  2.30355075  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12299,11 +12296,11 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
- 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
-  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+ 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905 23.13241905
+  8.58297055  8.58297055  8.58297055  6.28176602  6.28176602  6.28176602
+  5.27022154  3.58483238  2.30355075  1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12428,36 +12425,36 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[[-3.67621025e+07]
- [-3.42120579e+07]
- [-3.15506249e+07]
- [-3.03158609e+07]
- [-2.90712292e+07]
- [-2.78057510e+07]
- [-2.65060527e+07]
- [-2.51548887e+07]
- [-2.37292173e+07]
- [-2.29801835e+07]
- [-2.21998346e+07]
- [-2.13819177e+07]
- [-2.06793980e+07]
- [-2.01128166e+07]
- [-1.95462987e+07]
- [-1.92645521e+07]
- [-1.89857986e+07]
- [-1.87100382e+07]
- [-1.65383295e+07]
- [-1.53458629e+07]
- [-1.41530380e+07]
- [-1.31807071e+07]
- [-1.22080305e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 1.14378054e-08]]</t>
+          <t>[[-3.51598340e+07]
+ [-3.25505825e+07]
+ [-2.98395056e+07]
+ [-2.85871320e+07]
+ [-2.73257342e+07]
+ [-2.60452593e+07]
+ [-2.47334499e+07]
+ [-2.33744358e+07]
+ [-2.19469716e+07]
+ [-2.11999652e+07]
+ [-2.04241637e+07]
+ [-1.96138190e+07]
+ [-1.89093015e+07]
+ [-1.83294679e+07]
+ [-1.77496342e+07]
+ [-1.74597174e+07]
+ [-1.71698006e+07]
+ [-1.68798837e+07]
+ [-1.50811918e+07]
+ [-1.42615192e+07]
+ [-1.34414489e+07]
+ [-1.25837003e+07]
+ [-1.17255675e+07]
+ [-1.08670623e+07]
+ [-1.03808502e+07]
+ [-9.95289656e+06]
+ [-9.58350155e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12480,36 +12477,36 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[[-1.53772098e+06]
- [-1.03440284e+07]
- [-2.40694636e+07]
- [ 3.78847452e+06]
- [ 3.78912756e+06]
- [ 3.78979068e+06]
- [ 3.79048472e+06]
- [ 3.79123805e+06]
- [ 3.79209063e+06]
- [ 3.78995978e+06]
- [ 3.79024217e+06]
- [ 3.79056006e+06]
- [ 3.79043205e+06]
- [ 3.78972510e+06]
- [ 3.78983390e+06]
- [ 3.78848331e+06]
- [ 3.78849509e+06]
- [ 3.78850682e+06]
- [ 3.79439498e+06]
- [ 3.79633893e+06]
- [ 3.79807091e+06]
- [ 3.79816621e+06]
- [ 3.80066484e+06]
- [ 3.80255268e+06]
- [ 3.79632309e+06]
- [ 3.79589011e+06]
- [ 3.79530823e+06]
- [ 3.79233322e+06]
- [ 3.79230694e+06]
- [ 5.17914753e+03]]</t>
+          <t>[[-1.55322699e+06]
+ [-1.05628855e+07]
+ [-2.48583945e+07]
+ [ 3.78858838e+06]
+ [ 3.78929577e+06]
+ [ 3.79001065e+06]
+ [ 3.79075349e+06]
+ [ 3.79155219e+06]
+ [ 3.79244633e+06]
+ [ 3.79015150e+06]
+ [ 3.79044232e+06]
+ [ 3.79076777e+06]
+ [ 3.79065558e+06]
+ [ 3.78997505e+06]
+ [ 3.79009444e+06]
+ [ 3.78862472e+06]
+ [ 3.78865353e+06]
+ [ 3.78868199e+06]
+ [ 3.79248315e+06]
+ [ 3.79398433e+06]
+ [ 3.79531867e+06]
+ [ 3.79747633e+06]
+ [ 3.79940516e+06]
+ [ 3.80086275e+06]
+ [ 3.79538144e+06]
+ [ 3.79468880e+06]
+ [ 3.79387621e+06]
+ [ 3.79130387e+06]
+ [ 3.79127593e+06]
+ [ 4.14806797e+03]]</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -12532,36 +12529,36 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[[-1.21030442e+04]
- [-8.16526331e+04]
- [-1.92663737e+05]
- [ 2.24405796e+04]
- [ 2.24457790e+04]
- [ 2.24511010e+04]
- [ 2.24567144e+04]
- [ 2.24628516e+04]
- [ 2.24698420e+04]
- [ 2.24528292e+04]
- [ 2.24551622e+04]
- [ 2.24577940e+04]
- [ 2.24568244e+04]
- [ 2.24511461e+04]
- [ 2.24520861e+04]
- [ 2.24411050e+04]
- [ 2.24412162e+04]
- [ 2.24413280e+04]
- [ 2.24902354e+04]
- [ 2.25078912e+04]
- [ 2.25242430e+04]
- [ 2.25279615e+04]
- [ 2.25549454e+04]
- [ 2.25781415e+04]
- [ 2.25216368e+04]
- [ 2.25206736e+04]
- [ 2.25192804e+04]
- [ 2.24902548e+04]
- [ 2.24932857e+04]
- [ 6.49574423e+01]]</t>
+          <t>[[-1.22147375e+04]
+ [-8.33007720e+04]
+ [-1.98755355e+05]
+ [ 2.24414670e+04]
+ [ 2.24470949e+04]
+ [ 2.24528284e+04]
+ [ 2.24588331e+04]
+ [ 2.24653374e+04]
+ [ 2.24726673e+04]
+ [ 2.24543560e+04]
+ [ 2.24567590e+04]
+ [ 2.24594538e+04]
+ [ 2.24586169e+04]
+ [ 2.24531613e+04]
+ [ 2.24541918e+04]
+ [ 2.24422503e+04]
+ [ 2.24425017e+04]
+ [ 2.24427509e+04]
+ [ 2.24743563e+04]
+ [ 2.24879749e+04]
+ [ 2.25005604e+04]
+ [ 2.25215196e+04]
+ [ 2.25423328e+04]
+ [ 2.25602309e+04]
+ [ 2.25109541e+04]
+ [ 2.25069649e+04]
+ [ 2.25028759e+04]
+ [ 2.24783987e+04]
+ [ 2.24814111e+04]
+ [ 5.30820000e+01]]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12584,36 +12581,36 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[[-8.23289823e+04]
- [-1.12896955e+06]
- [-5.38164317e+06]
- [-6.12950973e+06]
- [-5.97470195e+06]
- [-5.81855335e+06]
- [-5.66124212e+06]
- [-5.50294910e+06]
- [-5.34386163e+06]
- [-5.26415773e+06]
- [-5.18434101e+06]
- [-5.10443785e+06]
- [-5.02447930e+06]
- [-4.94445836e+06]
- [-4.86435845e+06]
- [-4.82430273e+06]
- [-4.78423186e+06]
- [-4.74414548e+06]
- [-4.43425838e+06]
- [-4.11967193e+06]
- [-3.80171732e+06]
- [-3.33971105e+06]
- [-2.86792515e+06]
- [-2.39010787e+06]
- [-2.10238741e+06]
- [-1.81338714e+06]
- [-1.52273657e+06]
- [-1.32822451e+06]
- [-1.13310572e+06]
- [-6.40844583e-04]]</t>
+          <t>[[-8.15314918e+04]
+ [-1.11234994e+06]
+ [-5.43243447e+06]
+ [-6.11762413e+06]
+ [-5.96278593e+06]
+ [-5.80661637e+06]
+ [-5.64930484e+06]
+ [-5.49104274e+06]
+ [-5.33202729e+06]
+ [-5.25238280e+06]
+ [-5.17263953e+06]
+ [-5.09282470e+06]
+ [-5.01297027e+06]
+ [-4.93307092e+06]
+ [-4.85311192e+06]
+ [-4.81313653e+06]
+ [-4.77315328e+06]
+ [-4.73316401e+06]
+ [-4.42409781e+06]
+ [-4.10980582e+06]
+ [-3.79142415e+06]
+ [-3.32908732e+06]
+ [-2.85895636e+06]
+ [-2.38404006e+06]
+ [-2.09831122e+06]
+ [-1.81133133e+06]
+ [-1.52221133e+06]
+ [-1.32813595e+06]
+ [-1.13293218e+06]
+ [-5.23628265e-04]]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12636,36 +12633,36 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>[[ 1.05182193e+07]
- [ 1.44072626e+08]
- [ 6.80727913e+08]
- [ 7.69691285e+08]
- [ 7.43774308e+08]
- [ 7.17690945e+08]
- [ 6.91465044e+08]
- [ 6.65120555e+08]
- [ 6.38681994e+08]
- [ 6.25444868e+08]
- [ 6.12195185e+08]
- [ 5.98936301e+08]
- [ 5.85672114e+08]
- [ 5.72401813e+08]
- [ 5.59123420e+08]
- [ 5.52484134e+08]
- [ 5.45843417e+08]
- [ 5.39201248e+08]
- [ 4.87989486e+08]
- [ 4.36277050e+08]
- [ 3.84232850e+08]
- [ 3.09158425e+08]
- [ 2.33250867e+08]
- [ 1.56976835e+08]
- [ 1.11260688e+08]
- [ 6.55745130e+07]
- [ 1.99518728e+07]
- [-1.03753163e+07]
- [-4.06137164e+07]
- [ 5.10925072e-02]]</t>
+          <t>[[ 1.04213947e+07]
+ [ 1.42069031e+08]
+ [ 6.87714889e+08]
+ [ 7.68788154e+08]
+ [ 7.42866959e+08]
+ [ 7.16780461e+08]
+ [ 6.90553924e+08]
+ [ 6.64212616e+08]
+ [ 6.37782268e+08]
+ [ 6.24552124e+08]
+ [ 6.11311136e+08]
+ [ 5.98062757e+08]
+ [ 5.84810989e+08]
+ [ 5.71555221e+08]
+ [ 5.58293688e+08]
+ [ 5.51664024e+08]
+ [ 5.45033797e+08]
+ [ 5.38403239e+08]
+ [ 4.87287902e+08]
+ [ 4.35609181e+08]
+ [ 3.83515503e+08]
+ [ 3.08382749e+08]
+ [ 2.32596669e+08]
+ [ 1.56536722e+08]
+ [ 1.10955879e+08]
+ [ 6.53983325e+07]
+ [ 1.98722374e+07]
+ [-1.04165268e+07]
+ [-4.06287839e+07]
+ [ 4.09205188e-02]]</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -12688,35 +12685,35 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[[1270914.68363491]
- [2931812.02363889]
- [5492365.38173114]
- [9738291.71891986]
- [9738223.48303447]
- [9738154.70281283]
- [9738084.77157193]
- [9738012.95035348]
- [9737938.28626411]
- [9737859.50620817]
- [9737818.11644793]
- [9737774.99666434]
- [9737729.8675591 ]
- [9737691.17491034]
- [9737659.9872372 ]
- [9737634.47454583]
- [9737630.3129701 ]
- [9737626.23079931]
- [9738338.05357142]
- [9738217.80656632]
- [9738097.42210924]
- [9739057.90009782]
- [9738885.45707935]
- [9738712.95886255]
- [9738696.98055445]
- [9738788.87033338]
- [9738911.07638572]
- [9738933.45190324]
- [9738864.3533933 ]
+          <t>[[1317736.00454978]
+ [3013868.54147721]
+ [5575478.80198247]
+ [9738159.74181933]
+ [9738092.10504367]
+ [9738023.98185469]
+ [9737954.82936263]
+ [9737883.98565472]
+ [9737810.59376236]
+ [9737733.50650475]
+ [9737693.16644692]
+ [9737651.27174693]
+ [9737607.5120344 ]
+ [9737569.46745366]
+ [9737538.15613551]
+ [9737506.84501868]
+ [9737491.18953585]
+ [9737475.53410326]
+ [9738886.85794557]
+ [9738766.51366298]
+ [9738645.93498784]
+ [9739254.07581455]
+ [9739081.37550163]
+ [9738908.60393066]
+ [9738867.63041548]
+ [9739067.58245808]
+ [9739347.45660073]
+ [9739476.12679452]
+ [9739406.89068819]
  [      0.        ]]</t>
         </is>
       </c>
@@ -12740,24 +12737,24 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[[-1.45214384e+07]
- [ 1.22610147e+07]
- [ 1.16466890e+08]
- [ 1.34098606e+08]
- [ 1.29684041e+08]
- [ 1.25246918e+08]
- [ 1.20797834e+08]
- [ 1.16349144e+08]
- [ 1.11915921e+08]
- [ 1.09712171e+08]
- [ 1.07520101e+08]
- [ 1.05343168e+08]
- [ 1.03125407e+08]
- [ 1.00856612e+08]
- [ 9.85851534e+07]
- [ 9.85367338e+07]
- [ 9.95777577e+07]
- [ 1.00636505e+08]]</t>
+          <t>[[-1.34116258e+07]
+ [ 1.36178447e+07]
+ [ 1.22084858e+08]
+ [ 1.38574761e+08]
+ [ 1.34033351e+08]
+ [ 1.29467832e+08]
+ [ 1.24888560e+08]
+ [ 1.20307482e+08]
+ [ 1.15738998e+08]
+ [ 1.13466445e+08]
+ [ 1.11204422e+08]
+ [ 1.08956135e+08]
+ [ 1.06660648e+08]
+ [ 1.04309550e+08]
+ [ 1.01957318e+08]
+ [ 1.00781419e+08]
+ [ 9.96054091e+07]
+ [ 9.84293345e+07]]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12780,24 +12777,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[[ 1337174.48513863]
- [ 8455878.08982359]
- [19548347.46730522]
- [ 3928434.21967539]
- [ 3928943.74444611]
- [ 3929461.18398378]
- [ 3930002.95112465]
- [ 3930591.38536292]
- [ 3931257.98422013]
- [ 3929566.4888241 ]
- [ 3929785.67905323]
- [ 3930032.76108574]
- [ 3930199.36737178]
- [ 3930181.19826649]
- [ 3930808.60458298]
- [ 3955861.32253449]
- [ 4008567.40061656]
- [ 4062643.48805995]]</t>
+          <t>[[ 1328637.85617226]
+ [ 8450915.1245181 ]
+ [19739015.53116022]
+ [ 3882029.74102026]
+ [ 3882569.19866755]
+ [ 3883114.40101471]
+ [ 3883681.0773654 ]
+ [ 3884290.72042365]
+ [ 3884973.79133751]
+ [ 3883194.58325534]
+ [ 3883415.13496605]
+ [ 3883662.26550464]
+ [ 3883571.35228951]
+ [ 3883042.23965108]
+ [ 3883131.33451576]
+ [ 3881993.61523079]
+ [ 3882014.31702418]
+ [ 3882034.75136485]]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12822,17 +12819,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-17107519.8978398 ]
- [-31961903.54630912]
- [-27471105.18398437]
- [-23013574.01142902]
- [-18595802.89089739]
- [-14228515.74112138]
- [ -9928048.89304239]
- [ -6750056.51289274]
- [ -4671675.05741144]
- [ -2627050.9626885 ]
- [  -806903.68437368]
+ [-15248559.05106381]
+ [-28488815.24152973]
+ [-24486002.18486105]
+ [-20512841.39285005]
+ [-16575120.19142631]
+ [-12682397.20212112]
+ [ -8849233.59502377]
+ [ -6016572.59202931]
+ [ -4164035.07964796]
+ [ -2341586.73927984]
+ [  -719263.06579736]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -12896,24 +12893,24 @@
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[[0.06649206]
- [0.08636854]
- [0.58949462]
- [0.69075162]
- [0.65808761]
- [0.62565441]
- [0.5935476 ]
- [0.56188678]
- [0.53082234]
- [0.51295761]
- [0.49802857]
- [0.48336443]
- [0.46915201]
- [0.45708487]
- [0.44683812]
- [0.44663327]
- [0.45135781]
- [0.45616306]]</t>
+          <t>[[0.06153014]
+ [0.09040082]
+ [0.60947501]
+ [0.70061598]
+ [0.66902897]
+ [0.63760827]
+ [0.60643887]
+ [0.57562616]
+ [0.54530196]
+ [0.52807157]
+ [0.51341285]
+ [0.49897757]
+ [0.48488088]
+ [0.47263999]
+ [0.4620264 ]
+ [0.45672036]
+ [0.4514147 ]
+ [0.44610903]]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12932,24 +12929,24 @@
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[[0.07705464]
- [0.11904274]
- [0.55640323]
- [0.35669419]
- [0.31147757]
- [0.26679459]
- [0.22281709]
- [0.17985781]
- [0.13852075]
- [0.07290383]
- [0.06556906]
- [0.05819542]
- [0.05290615]
- [0.05054346]
- [0.04958584]
- [0.04460292]
- [0.04453488]
- [0.04447693]]</t>
+          <t>[[0.06873565]
+ [0.10683523]
+ [0.45933336]
+ [0.28617176]
+ [0.25008874]
+ [0.21448595]
+ [0.17952842]
+ [0.14551501]
+ [0.11302095]
+ [0.06188778]
+ [0.05546329]
+ [0.05002802]
+ [0.04618126]
+ [0.04437485]
+ [0.04348509]
+ [0.03921079]
+ [0.03878499]
+ [0.03836121]]</t>
         </is>
       </c>
       <c r="E489" t="inlineStr"/>
@@ -12968,24 +12965,24 @@
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[[0.12520336]
- [0.26481796]
- [0.8472103 ]
- [0.94024518]
- [0.90679088]
- [0.87315167]
- [0.83930394]
- [0.80521081]
- [0.77081592]
- [0.75349512]
- [0.7360656 ]
- [0.71850887]
- [0.70150007]
- [0.68510311]
- [0.6687068 ]
- [0.66874811]
- [0.67709933]
- [0.68567542]]</t>
+          <t>[[0.11668628]
+ [0.25273338]
+ [0.83864713]
+ [0.92201408]
+ [0.88885318]
+ [0.85552456]
+ [0.82201073]
+ [0.78828196]
+ [0.75429076]
+ [0.73719022]
+ [0.71999552]
+ [0.7026904 ]
+ [0.68580269]
+ [0.66939585]
+ [0.65300235]
+ [0.64481409]
+ [0.6366301 ]
+ [0.62845063]]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -13008,36 +13005,36 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[[-1.45214384e+07]
- [ 1.22610147e+07]
- [ 1.16466890e+08]
- [ 1.34098606e+08]
- [ 1.29684041e+08]
- [ 1.25246918e+08]
- [ 1.20797834e+08]
- [ 1.16349144e+08]
- [ 1.11915921e+08]
- [ 1.09712171e+08]
- [ 1.07520101e+08]
- [ 1.05343168e+08]
- [ 1.03125407e+08]
- [ 1.00856612e+08]
- [ 9.85851534e+07]
- [ 9.85367338e+07]
- [ 9.95777577e+07]
- [ 9.34810471e+07]
- [ 1.89261871e+08]
- [ 1.68745932e+08]
- [ 1.48092401e+08]
- [ 2.05599583e+08]
- [ 1.51853735e+08]
- [ 9.78428199e+07]
- [ 7.43489402e+07]
- [ 4.70100062e+07]
- [ 5.63390513e+06]
- [-4.85362612e+06]
- [ 3.60997232e+07]
- [ 6.84081381e-02]]</t>
+          <t>[[-1.34116258e+07]
+ [ 1.36178447e+07]
+ [ 1.22084858e+08]
+ [ 1.38574761e+08]
+ [ 1.34033351e+08]
+ [ 1.29467832e+08]
+ [ 1.24888560e+08]
+ [ 1.20307482e+08]
+ [ 1.15738998e+08]
+ [ 1.13466445e+08]
+ [ 1.11204422e+08]
+ [ 1.08956135e+08]
+ [ 1.06660648e+08]
+ [ 1.04309550e+08]
+ [ 1.01957318e+08]
+ [ 1.00781419e+08]
+ [ 9.96054091e+07]
+ [ 9.84293345e+07]
+ [ 2.40141603e+08]
+ [ 2.13740631e+08]
+ [ 1.87120293e+08]
+ [ 2.02644791e+08]
+ [ 1.49185062e+08]
+ [ 9.55283863e+07]
+ [ 7.22910912e+07]
+ [ 4.92070091e+07]
+ [ 6.24377192e+06]
+ [-5.74459193e+06]
+ [ 4.51380651e+07]
+ [ 6.83149556e-02]]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13060,36 +13057,36 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[[1.33717449e+06]
- [8.45587809e+06]
- [1.95483475e+07]
- [3.92843422e+06]
- [3.92894374e+06]
- [3.92946118e+06]
- [3.93000295e+06]
- [3.93059139e+06]
- [3.93125798e+06]
- [3.92956649e+06]
- [3.92978568e+06]
- [3.93003276e+06]
- [3.93019937e+06]
- [3.93018120e+06]
- [3.93080860e+06]
- [3.95586132e+06]
- [4.00856740e+06]
- [3.99803451e+06]
- [7.50613515e+06]
- [7.50891883e+06]
- [7.51139622e+06]
- [1.31872992e+07]
- [1.31935846e+07]
- [1.31983182e+07]
- [1.43844466e+07]
- [1.61749029e+07]
- [1.84411199e+07]
- [1.98040110e+07]
- [1.98038727e+07]
- [1.81439586e+04]]</t>
+          <t>[[1.32863786e+06]
+ [8.45091512e+06]
+ [1.97390155e+07]
+ [3.88202974e+06]
+ [3.88256920e+06]
+ [3.88311440e+06]
+ [3.88368108e+06]
+ [3.88429072e+06]
+ [3.88497379e+06]
+ [3.88319458e+06]
+ [3.88341513e+06]
+ [3.88366227e+06]
+ [3.88357135e+06]
+ [3.88304224e+06]
+ [3.88313133e+06]
+ [3.88199362e+06]
+ [3.88201432e+06]
+ [3.88203475e+06]
+ [1.05731869e+07]
+ [1.05763190e+07]
+ [1.05790994e+07]
+ [1.44827592e+07]
+ [1.44882624e+07]
+ [1.44924058e+07]
+ [1.55742449e+07]
+ [1.83241876e+07]
+ [2.21753674e+07]
+ [2.47229537e+07]
+ [2.47227737e+07]
+ [1.81564657e+04]]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -13114,34 +13111,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.71075199e+07]
- [-3.19619035e+07]
- [-2.74711052e+07]
- [-2.30135740e+07]
- [-1.85958029e+07]
- [-1.42285157e+07]
- [-9.92804889e+06]
- [-6.75005651e+06]
- [-4.67167506e+06]
- [-2.62705096e+06]
- [-8.06903684e+05]
+ [-1.52485591e+07]
+ [-2.84888152e+07]
+ [-2.44860022e+07]
+ [-2.05128414e+07]
+ [-1.65751202e+07]
+ [-1.26823972e+07]
+ [-8.84923360e+06]
+ [-6.01657259e+06]
+ [-4.16403508e+06]
+ [-2.34158674e+06]
+ [-7.19263066e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.05954688e+03]
- [-3.26109678e+03]
- [-3.66844631e+03]
- [-3.96528472e+03]
- [-7.49392878e+03]
- [-7.97592977e+03]
- [-8.37926684e+03]
- [-8.58341336e+03]
- [-8.00992605e+03]
- [-7.39261483e+03]
- [-7.11306770e+03]
- [-7.19770642e+03]
- [-7.27930418e+03]]</t>
+ [-1.03890539e+03]
+ [-6.17481923e+03]
+ [-6.94612714e+03]
+ [-7.50818451e+03]
+ [-1.10194814e+04]
+ [-1.17282419e+04]
+ [-1.23213308e+04]
+ [-1.20180193e+04]
+ [-1.08058355e+04]
+ [-9.51554049e+03]
+ [-8.89877508e+03]
+ [-9.00466201e+03]
+ [-9.10674456e+03]]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -13212,36 +13209,36 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[[6.64920593e-02]
- [8.63685441e-02]
- [5.89494623e-01]
- [6.90751620e-01]
- [6.58087609e-01]
- [6.25654407e-01]
- [5.93547598e-01]
- [5.61886780e-01]
- [5.30822335e-01]
- [5.12957606e-01]
- [4.98028570e-01]
- [4.83364434e-01]
- [4.69152006e-01]
- [4.57084872e-01]
- [4.46838120e-01]
- [4.46633267e-01]
- [4.51357809e-01]
- [4.23857466e-01]
- [8.57816928e-01]
- [7.65296301e-01]
- [6.72223247e-01]
- [9.35403943e-01]
- [6.94392219e-01]
- [4.54353207e-01]
- [3.54578743e-01]
- [2.47467630e-01]
- [1.46661081e-01]
- [1.56645455e-01]
- [2.25182156e-01]
- [1.45863656e-04]]</t>
+          <t>[[6.15301445e-02]
+ [9.04008173e-02]
+ [6.09475010e-01]
+ [7.00615983e-01]
+ [6.69028971e-01]
+ [6.37608269e-01]
+ [6.06438871e-01]
+ [5.75626162e-01]
+ [5.45301963e-01]
+ [5.28071570e-01]
+ [5.13412854e-01]
+ [4.98977574e-01]
+ [4.84880884e-01]
+ [4.72639986e-01]
+ [4.62026400e-01]
+ [4.56720364e-01]
+ [4.51414700e-01]
+ [4.46111371e-01]
+ [1.08902451e+00]
+ [9.70038121e-01]
+ [8.50173072e-01]
+ [9.23325351e-01]
+ [6.84078932e-01]
+ [4.46644822e-01]
+ [3.48923074e-01]
+ [2.64789783e-01]
+ [1.75958117e-01]
+ [1.95359154e-01]
+ [2.81348774e-01]
+ [1.48041571e-04]]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13260,36 +13257,36 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[7.70546410e-02]
- [1.19042745e-01]
- [5.56403227e-01]
- [3.56694195e-01]
- [3.11477574e-01]
- [2.66794588e-01]
- [2.22817093e-01]
- [1.79857807e-01]
- [1.38520750e-01]
- [7.29038333e-02]
- [6.55690647e-02]
- [5.81954244e-02]
- [5.29061481e-02]
- [5.05434644e-02]
- [4.95858414e-02]
- [4.46029183e-02]
- [4.45348830e-02]
- [4.56594267e-02]
- [1.27712717e-01]
- [1.23549339e-01]
- [1.19458680e-01]
- [3.84161086e-01]
- [3.75422471e-01]
- [3.66708374e-01]
- [3.35366011e-01]
- [3.44478314e-01]
- [3.57941984e-01]
- [3.25806606e-01]
- [3.23154879e-01]
- [5.05959642e-04]]</t>
+          <t>[[0.06873565]
+ [0.10683523]
+ [0.45933336]
+ [0.28617176]
+ [0.25008874]
+ [0.21448595]
+ [0.17952842]
+ [0.14551501]
+ [0.11302095]
+ [0.06188778]
+ [0.05546329]
+ [0.05002802]
+ [0.04618126]
+ [0.04437485]
+ [0.04348509]
+ [0.03921079]
+ [0.03878499]
+ [0.03836075]
+ [0.30736036]
+ [0.30062858]
+ [0.29390653]
+ [0.6311307 ]
+ [0.61771305]
+ [0.60426935]
+ [0.51188785]
+ [0.52844175]
+ [0.55595994]
+ [0.50491241]
+ [0.50158427]
+ [0.00078918]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -13308,36 +13305,36 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[3.62330841e-01]
- [5.88931056e-01]
- [1.54753250e+00]
- [1.68763762e+00]
- [1.61699019e+00]
- [1.54667748e+00]
- [1.47651647e+00]
- [1.40628006e+00]
- [1.33567320e+00]
- [1.30014832e+00]
- [1.26437422e+00]
- [1.22827303e+00]
- [1.19446818e+00]
- [1.16318860e+00]
- [1.13207052e+00]
- [1.13138755e+00]
- [1.14564652e+00]
- [1.11846214e+00]
- [2.50987630e+00]
- [2.21382338e+00]
- [1.92843080e+00]
- [3.24285443e+00]
- [2.46627655e+00]
- [1.73963252e+00]
- [1.59122280e+00]
- [1.52122436e+00]
- [1.25850078e+00]
- [1.25789154e+00]
- [1.98760807e+00]
- [5.36772119e-10]]</t>
+          <t>[[3.71474685e-01]
+ [6.05789805e-01]
+ [1.63147923e+00]
+ [1.76223645e+00]
+ [1.68645021e+00]
+ [1.61114810e+00]
+ [1.53614691e+00]
+ [1.46121889e+00]
+ [1.38606821e+00]
+ [1.34832906e+00]
+ [1.31037811e+00]
+ [1.27213788e+00]
+ [1.23606456e+00]
+ [1.20239839e+00]
+ [1.16894671e+00]
+ [1.15230628e+00]
+ [1.13572004e+00]
+ [1.11918807e+00]
+ [3.18738627e+00]
+ [2.82554830e+00]
+ [2.47344588e+00]
+ [2.98905054e+00]
+ [2.28580711e+00]
+ [1.61559533e+00]
+ [1.47121082e+00]
+ [1.56652754e+00]
+ [1.52889625e+00]
+ [1.76755033e+00]
+ [3.20345642e+00]
+ [5.49650608e-10]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -13360,8 +13357,8 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[217.64883604 254.9367969  280.490989   300.32925264 322.99888336
+ 341.50494552 357.26470094 322.26503795 282.66979124 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13481,8 +13478,8 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[217.64883604 254.9367969  280.490989   300.32925264 322.99888336
+ 341.50494552 357.26470094 322.26503795 282.66979124 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13671,8 +13668,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-217.64883604 -254.9367969  -280.490989   -300.32925264 -322.99888336
+ -341.50494552 -357.26470094 -322.26503795 -282.66979124 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -13721,18 +13718,18 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[[ 1.95230669e+08]
- [ 1.75626104e+08]
- [ 1.55809192e+08]
- [ 2.20972808e+08]
- [ 1.68921502e+08]
- [ 1.16416785e+08]
- [ 9.61539849e+07]
- [ 7.41744342e+07]
- [ 3.99099409e+07]
- [ 6.30646223e+06]
- [-3.44318472e+06]
- [ 3.67633485e+07]]</t>
+          <t>[[ 2.47518354e+08]
+ [ 2.22247217e+08]
+ [ 1.96683637e+08]
+ [ 2.17619869e+08]
+ [ 1.65896674e+08]
+ [ 1.13805918e+08]
+ [ 9.37886934e+07]
+ [ 7.81382651e+07]
+ [ 4.64508843e+07]
+ [ 7.91112801e+06]
+ [-4.10527797e+06]
+ [ 4.58024215e+07]]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13755,18 +13752,18 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[[ 7497140.05087272]
- [ 7499992.06828248]
- [ 7502561.56390039]
- [13174909.1884043 ]
- [13181626.36427184]
- [13186837.39130696]
- [14377814.77579226]
- [16168525.13532503]
- [18435110.84627434]
- [19800270.28615819]
- [19800376.40065001]
- [19800242.48637168]]</t>
+          <t>[[10563578.32056306]
+ [10566774.63916449]
+ [10569653.82188458]
+ [14469485.4996259 ]
+ [14475357.9292341 ]
+ [14479911.06217428]
+ [15566967.68037836]
+ [18317139.00450069]
+ [22168711.00635556]
+ [24718833.35647342]
+ [24718964.7912794 ]
+ [24718796.96997893]]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13789,18 +13786,18 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>[[-3261.09677756]
- [-3668.44631202]
- [-3965.28471595]
- [-7493.92878427]
- [-7975.92976916]
- [-8379.26683547]
- [-8583.41336499]
- [-8009.92605495]
- [-7392.61483222]
- [-7113.06770454]
- [-7197.70642314]
- [-7279.30418072]]</t>
+          <t>[[ -6174.81922927]
+ [ -6946.12713882]
+ [ -7508.18451079]
+ [-11019.48142442]
+ [-11728.2419494 ]
+ [-12321.33076003]
+ [-12018.01933768]
+ [-10805.83547976]
+ [ -9515.54049263]
+ [ -8898.77507806]
+ [ -9004.66201054]
+ [ -9106.74456082]]</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13853,18 +13850,18 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[[0.88474008]
- [0.79631308]
- [0.70698353]
- [1.00451198]
- [0.77078196]
- [0.5364605 ]
- [0.44914731]
- [0.358523  ]
- [0.23112494]
- [0.15767639]
- [0.15585219]
- [0.22734773]]</t>
+          <t>[[1.122281  ]
+ [1.00836141]
+ [0.89321326]
+ [0.99054889]
+ [0.75868612]
+ [0.52697553]
+ [0.44129111]
+ [0.38135678]
+ [0.27252556]
+ [0.19687585]
+ [0.194482  ]
+ [0.28351469]]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -13883,18 +13880,18 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[[0.1276336 ]
- [0.12346834]
- [0.1193764 ]
- [0.38391482]
- [0.37518096]
- [0.36647315]
- [0.33525371]
- [0.34437801]
- [0.3578552 ]
- [0.3257624 ]
- [0.32311328]
- [0.32047586]]</t>
+          <t>[[0.30720182]
+ [0.30046726]
+ [0.29374398]
+ [0.63073231]
+ [0.61731915]
+ [0.60388221]
+ [0.5117102 ]
+ [0.52828882]
+ [0.55583467]
+ [0.504852  ]
+ [0.50152807]
+ [0.49820882]]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13913,18 +13910,18 @@
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[[2.30304142]
- [2.06857144]
- [1.8347473 ]
- [2.777343  ]
- [2.17723769]
- [1.58319908]
- [1.42852109]
- [1.28537927]
- [0.98815065]
- [0.63849968]
- [0.50232123]
- [0.96417547]]</t>
+          <t>[[4.1508276 ]
+ [3.73628617]
+ [3.32141368]
+ [3.83841302]
+ [3.01416479]
+ [2.19586544]
+ [1.97301097]
+ [1.95053476]
+ [1.72096437]
+ [1.15489056]
+ [0.88150705]
+ [1.86200978]]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13947,7 +13944,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[0.16465568]</t>
+          <t>[0.1665258]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13970,7 +13967,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[0.16573939]</t>
+          <t>[0.16764354]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13993,7 +13990,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[0.16465568 0.16573939 0.68826689 0.93545879 1.05432292 2.44594383]</t>
+          <t>[0.1665258  0.16764354 0.66885627 0.88719989 1.00867099 2.50065157]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14012,12 +14009,12 @@
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[[ 1.01941319e+00 -1.05671476e-01  9.17166773e-01 -1.40317676e+00
-   5.72268271e-01]
- [-5.90196342e+02  7.29774292e+02 -6.18785612e+02  6.30656041e+02
-  -1.51225115e+02]
- [-8.95477587e+01  1.38522023e+02 -1.31092929e+01 -7.24412791e+00
-  -2.76208437e+01]]</t>
+          <t>[[ 1.16798333e+00  5.76248121e-02 -4.46225067e-01  2.35012124e-01
+  -1.43952004e-02]
+ [ 2.05149032e+02 -2.82343855e+02  1.99761106e+02 -7.28730099e+01
+  -4.86932732e+01]
+ [-1.02878789e+02  2.26941569e+02 -2.34690610e+02  2.20108807e+02
+  -1.08480977e+02]]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -14036,12 +14033,12 @@
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>[[ 1.01290177e+00 -9.90741562e-02  9.11972060e-01 -1.39958913e+00
-   5.73789455e-01]
- [ 8.89807702e+01 -1.05307761e+02  9.03719509e+01 -8.88752920e+01
-   1.58303323e+01]
- [-8.31561088e+01  1.28614921e+02 -2.17584614e+01  8.14560540e+00
-  -3.08459558e+01]]</t>
+          <t>[[ 1.16035151e+00  6.50378372e-02 -4.45807645e-01  2.26429771e-01
+  -6.01146827e-03]
+ [ 5.73477754e+01 -7.30924228e+01  4.34465484e+01 -3.80770136e+00
+  -2.28941997e+01]
+ [-9.77459471e+01  2.14549348e+02 -2.25656935e+02  2.13616861e+02
+  -1.03763327e+02]]</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14060,7 +14057,7 @@
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[[  5.55356608 -16.25037695  25.185964   -19.1915923    5.70243916]
+          <t>[[  7.35225941 -24.70677021  40.09476586 -30.98102937   9.24077431]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -14085,7 +14082,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[0.16573939 1.05432292 2.52210236]</t>
+          <t>[0.16764354 1.00867099 2.56109752]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -14108,7 +14105,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[0.16465568 0.93545879 2.44594383]</t>
+          <t>[0.1665258  0.88719989 2.50065157]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -14131,7 +14128,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[4.60765121 0.         0.        ]</t>
+          <t>[4.23038608 0.         0.        ]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -14155,18 +14152,18 @@
       <c r="D529" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.02361492]
- [0.08991595]
- [0.19469456]
- [0.42824833]
- [0.76191737]
- [1.17340494]
- [1.4500069 ]
- [1.7469168 ]
- [2.06204344]
- [2.27931379]
- [2.49881701]
- [2.71700811]]</t>
+ [0.02672246]
+ [0.10119846]
+ [0.21870635]
+ [0.46590353]
+ [0.80051866]
+ [1.20305684]
+ [1.47064795]
+ [1.75741716]
+ [2.06370178]
+ [2.2763707 ]
+ [2.49180724]
+ [2.70560021]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14189,7 +14186,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[2.71700811]</t>
+          <t>[2.70560021]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14212,17 +14209,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[-16539287.58040056]
- [-15346462.67444753]
- [-14153379.63914924]
- [-13180703.06846742]
- [-12207691.08672294]
- [-11234399.6147994 ]
- [-10692773.72291409]
- [-10198366.94882871]
- [ -9751211.14539441]
- [ -9468851.22077098]
- [ -9186467.52414185]
+          <t>[[-15081871.29716898]
+ [-14261800.96383257]
+ [-13441443.32348197]
+ [-12583310.44616338]
+ [-11724805.25854203]
+ [-10865990.23893817]
+ [-10379882.59262974]
+ [ -9952333.60973134]
+ [ -9583397.5587992 ]
+ [ -9356975.49637412]
+ [ -9130529.66194345]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -14246,18 +14243,18 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[3788169.15508457]
- [3790160.43296193]
- [3791956.17103431]
- [3793289.3603408 ]
- [3795957.94971951]
- [3798033.70156807]
- [3793902.89775066]
- [3793765.38766629]
- [3793497.36877365]
- [3791265.40767432]
- [3791308.88041324]
- [3791283.83446936]]</t>
+          <t>[[3787924.18153313]
+ [3789455.8697029 ]
+ [3790837.09331288]
+ [3792876.13959603]
+ [3794932.95924449]
+ [3796532.56117673]
+ [3793002.6798887 ]
+ [3792662.23788477]
+ [3792224.43922494]
+ [3790362.48747561]
+ [3790405.6927069 ]
+ [3790380.52619074]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14280,18 +14277,18 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[22439.08532454]
- [22456.90175268]
- [22473.54970407]
- [22487.20057509]
- [22515.12298304]
- [22539.40868259]
- [22500.6428626 ]
- [22502.00945209]
- [22503.08429031]
- [22480.50900735]
- [22483.99932634]
- [22487.05112791]]</t>
+          <t>[[22436.93495206]
+ [22450.63215853]
+ [22463.4311831 ]
+ [22483.13846863]
+ [22504.6569556 ]
+ [22523.37750977]
+ [22490.51749902]
+ [22489.36707099]
+ [22488.28415031]
+ [22469.90516814]
+ [22473.39560752]
+ [22476.44815071]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14314,18 +14311,18 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[-4494673.31266918]
- [-4198174.81897739]
- [-3896901.50614116]
- [-3456581.20860309]
- [-3004525.01991668]
- [-2544477.80489859]
- [-2266303.93262541]
- [-1986131.12054568]
- [-1703549.46353993]
- [-1513941.50316532]
- [-1323375.42128369]
- [-1132156.51705164]]</t>
+          <t>[[-4482159.35537659]
+ [-4185443.71394312]
+ [-3883580.35089335]
+ [-3443230.69944407]
+ [-2993303.17905812]
+ [-2536796.12441203]
+ [-2261080.43966556]
+ [-1983428.59618223]
+ [-1702883.59494754]
+ [-1514033.13147033]
+ [-1323672.30528481]
+ [-1132156.51714658]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14348,17 +14345,17 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>[[ 5.02350550e+08]
- [ 4.52829848e+08]
- [ 4.02797757e+08]
- [ 3.30317893e+08]
- [ 2.56742113e+08]
- [ 1.82541049e+08]
- [ 1.37925304e+08]
- [ 9.32443781e+07]
- [ 4.85244495e+07]
- [ 1.87348666e+07]
- [-1.10142908e+07]
+          <t>[[ 5.01211686e+08]
+ [ 4.51664367e+08]
+ [ 4.01564433e+08]
+ [ 3.29066852e+08]
+ [ 2.55678692e+08]
+ [ 1.81781448e+08]
+ [ 1.37366016e+08]
+ [ 9.28832715e+07]
+ [ 4.83289001e+07]
+ [ 1.86198883e+07]
+ [-1.10666591e+07]
  [-4.06893978e+07]]</t>
         </is>
       </c>
@@ -14382,18 +14379,18 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[[9738338.29072285]
- [9738217.90328689]
- [9738097.48266117]
- [9739057.96069496]
- [9738885.45636728]
- [9738712.89866848]
- [9738696.8621703 ]
- [9738788.74933497]
- [9738911.00098387]
- [9738933.4417317 ]
- [9738864.36480672]
- [9738795.28304612]]</t>
+          <t>[[9738887.19529079]
+ [9738766.61362726]
+ [9738645.97643854]
+ [9739254.07470132]
+ [9739081.29700297]
+ [9738908.45047728]
+ [9738867.40157646]
+ [9739067.34757806]
+ [9739347.29823853]
+ [9739476.09501584]
+ [9739406.90494468]
+ [9739337.70859249]]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
@@ -14416,9 +14413,9 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[  3787067.1877168 ]
- [    22429.54651138]
- [-17731754.23782879]]</t>
+          <t>[[  3787067.18771763]
+ [    22429.54651139]
+ [-15901543.87731441]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14441,8 +14438,8 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[-4.78507832e+06]
- [ 5.51191016e+08]
+          <t>[[-4.77260754e+06]
+ [ 5.50058858e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -14466,7 +14463,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1847602.64575758]</t>
+          <t>[1660509.87874788]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14489,7 +14486,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[-3.77929399e+00 -5.11255409e-02  1.15814607e+02]</t>
+          <t>[-4.20511415e+00 -5.68859517e-02  1.23363884e+02]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14512,7 +14509,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[3.05895449e+10 3.04838084e+10 2.66284788e+08 8.52611923e+02
+          <t>[2.97956046e+10 2.96898682e+10 2.66224874e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -14532,8 +14529,8 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[135.93533306 135.93533305 135.93533305 135.93533305 135.91267507
- 133.75188601]</t>
+          <t>[121.27280438 121.27280438 121.27280438 121.27280438 121.27280438
+ 121.27280438]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14552,7 +14549,7 @@
       <c r="C543" t="inlineStr"/>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         0.99966664 0.96853145]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -14571,7 +14568,7 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         0.99966664 0.96853145]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14672,10 +14669,10 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[4.75773666 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666
- 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666
- 4.75773666 4.75720797 4.75667928 4.7561506  4.70626087 4.65637115
- 4.60648142]</t>
+          <t>[4.54773016 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016
+ 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016
+ 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016
+ 4.54773016]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14721,7 +14718,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[6755.76101314]</t>
+          <t>[6172.52495712]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14744,7 +14741,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>[67905452.44340861]</t>
+          <t>[62043062.0793489]</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -14786,7 +14783,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>[71.11327382]</t>
+          <t>[64.97394692]</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -14809,7 +14806,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[402.4310494]</t>
+          <t>[335.94535028]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14832,7 +14829,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[402.4310494]</t>
+          <t>[335.94535028]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14855,8 +14852,8 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[6.92465504e+06 6.92465504e+06 1.47185085e+05 5.20818066e+09
- 5.20818066e+09 0.00000000e+00]</t>
+          <t>[6.32683808e+06 6.32683808e+06 1.28542478e+05 4.75854979e+09
+ 4.75854979e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14928,10 +14925,10 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
- 9.21296284]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -15185,8 +15182,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[17336.04471288 17336.04471281 17336.04471274 17336.04471266
- 17333.13368991 17055.52266707]</t>
+          <t>[17738.55411942 17738.55411935 17738.55411928 17738.55411921
+ 17738.55411914 17738.55411907]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15213,8 +15210,8 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>[193344.28255993 193344.28255745 193344.28255498 193344.28255251
- 193246.90489068 184109.91115131]</t>
+          <t>[180432.86856771 180432.86856558 180432.86856344 180432.86856131
+ 180432.86855917 180432.86855703]</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15241,8 +15238,8 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[193344.28255993 193344.28255745 193344.28255498 193344.28255251
- 193246.90489068 184109.91115131]</t>
+          <t>[180432.86856771 180432.86856558 180432.86856344 180432.86856131
+ 180432.86855917 180432.86855703]</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15269,8 +15266,8 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[4.63322029e+12 4.63322029e+12 4.63322029e+12 4.63322029e+12
- 4.63088677e+12 4.41193173e+12]</t>
+          <t>[4.32381664e+12 4.32381664e+12 4.32381664e+12 4.32381664e+12
+ 4.32381664e+12 4.32381664e+12]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15297,8 +15294,8 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>[4.63322029e+12 4.63322029e+12 4.63322029e+12 4.63322029e+12
- 4.63088677e+12 4.41193173e+12]</t>
+          <t>[4.32381664e+12 4.32381664e+12 4.32381664e+12 4.32381664e+12
+ 4.32381664e+12 4.32381664e+12]</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15325,8 +15322,8 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>[3.67414369e+12 3.67414369e+12 3.67414369e+12 3.67414369e+12
- 3.67229321e+12 3.49866186e+12]</t>
+          <t>[3.4287866e+12 3.4287866e+12 3.4287866e+12 3.4287866e+12 3.4287866e+12
+ 3.4287866e+12]</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15353,8 +15350,8 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>[4.15433614e+11 4.15433614e+11 4.15433614e+11 4.15433614e+11
- 4.15363855e+11 4.08711303e+11]</t>
+          <t>[4.25079179e+11 4.25079179e+11 4.25079179e+11 4.25079179e+11
+ 4.25079179e+11 4.25079179e+11]</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15462,12 +15459,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
- [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
- [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
- [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
- [0.         0.         0.48150555 0.20544418 0.20544418 0.        ]
- [0.         0.         0.48934296 0.21221162 0.21221162 0.        ]]</t>
+          <t>[[0.         0.         0.47050058 0.21035722 0.21035722 0.        ]
+ [0.         0.         0.47050058 0.21035722 0.21035722 0.        ]
+ [0.         0.         0.47050058 0.21035722 0.21035722 0.        ]
+ [0.         0.         0.47050058 0.21035722 0.21035722 0.        ]
+ [0.         0.         0.47050058 0.21035722 0.21035722 0.        ]
+ [0.         0.         0.47050058 0.21035722 0.21035722 0.        ]]</t>
         </is>
       </c>
       <c r="E581" t="inlineStr"/>
@@ -15490,12 +15487,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[[0.79023938 0.79023938 0.         0.         0.         0.10268747]
- [0.79023938 0.79023938 0.         0.         0.         0.10268747]
- [0.79023938 0.79023938 0.         0.         0.         0.10268747]
- [0.79023938 0.79023938 0.         0.         0.         0.10268747]
- [0.79037165 0.79037165 0.         0.         0.         0.10272209]
- [0.80319191 0.80319191 0.         0.         0.         0.10610581]]</t>
+          <t>[[0.7719865  0.7719865  0.         0.         0.         0.10517861]
+ [0.7719865  0.7719865  0.         0.         0.         0.10517861]
+ [0.7719865  0.7719865  0.         0.         0.         0.10517861]
+ [0.7719865  0.7719865  0.         0.         0.         0.10517861]
+ [0.7719865  0.7719865  0.         0.         0.         0.10517861]
+ [0.7719865  0.7719865  0.         0.         0.         0.10517861]]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15518,7 +15515,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[1099.81367604]</t>
+          <t>[1103.47299701]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15541,7 +15538,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[4676980.86317517]</t>
+          <t>[4757514.34893234]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15564,7 +15561,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[1905533.19795188]</t>
+          <t>[1951240.95312578]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15587,7 +15584,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[54.96004263]</t>
+          <t>[55.]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15610,7 +15607,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[7.69588717e+09 7.69588717e+09 4.24419286e+07 0.00000000e+00
+          <t>[7.88985279e+09 7.88985279e+09 3.96952311e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -15634,9 +15631,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
- 9.51494463 9.51388725 9.51282988 9.46241147 9.36263202 9.26285257]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15659,8 +15656,8 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
- 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
+          <t>[0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025
+ 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15708,7 +15705,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>[2005533.19795188]</t>
+          <t>[2051240.95312578]</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -15716,7 +15713,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>fixedse.monopile_cost</t>
+          <t>fixedse.mono.grav_foundation_mass</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -15726,12 +15723,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>[5176980.86317517]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -15739,7 +15736,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>fixedse.monopile_z_cg</t>
+          <t>fixedse.monopile_cost</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -15749,12 +15746,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[57.70444783]</t>
+          <t>[5257514.34893234]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
@@ -15762,7 +15759,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>fixedse.monopile_I_base</t>
+          <t>fixedse.monopile_z_cg</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -15772,13 +15769,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[8.90694815e+09 8.90694815e+09 4.45638957e+07 0.00000000e+00
- 0.00000000e+00 0.00000000e+00]</t>
+          <t>[57.68130372]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15786,7 +15782,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>fixedse.structural_mass</t>
+          <t>fixedse.monopile_I_base</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -15796,12 +15792,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[2901801.36028983]</t>
+          <t>[9.10088689e+09 9.10088689e+09 4.17634160e+07 0.00000000e+00
+ 0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -15809,7 +15806,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>fixedse.structural_cost</t>
+          <t>fixedse.structural_mass</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -15819,12 +15816,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[7641092.53858003]</t>
+          <t>[2760416.34845403]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr"/>
@@ -15832,7 +15829,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>fixedse.z_start</t>
+          <t>fixedse.structural_cost</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -15842,12 +15839,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[-95.]</t>
+          <t>[7361474.53236264]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -15855,7 +15852,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>fixedse.constr_diam_consistency</t>
+          <t>fixedse.z_start</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -15863,10 +15860,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[0.86834172]</t>
+          <t>[-95.]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -15874,7 +15875,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>fixedse.soil.z_k</t>
+          <t>fixedse.constr_diam_consistency</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -15882,14 +15883,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15897,7 +15894,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>fixedse.soil.k</t>
+          <t>fixedse.soil.z_k</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -15912,26 +15909,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[[3.13772621e+10 1.86673540e+13 3.13772621e+10 1.86673540e+13
-  1.95605542e+10 8.04133145e+10]
- [2.82648411e+10 1.32157604e+13 2.82648411e+10 1.32157604e+13
-  1.78805542e+10 8.04133145e+10]
- [2.51524200e+10 8.95883338e+12 2.51524200e+10 8.95883338e+12
-  1.62005542e+10 8.04133145e+10]
- [2.20399990e+10 5.74723972e+12 2.20399990e+10 5.74723972e+12
-  1.45205542e+10 8.04133145e+10]
- [1.89275779e+10 3.43164606e+12 1.89275779e+10 3.43164606e+12
-  1.28405542e+10 8.04133145e+10]
- [1.58151569e+10 1.86271906e+12 1.58151569e+10 1.86271906e+12
-  1.11605542e+10 8.04133145e+10]
- [1.27027358e+10 8.91125406e+11 1.27027358e+10 8.91125406e+11
-  9.48055421e+09 8.04133145e+10]
- [9.59031477e+09 3.67531747e+11 9.59031477e+09 3.67531747e+11
-  7.80055421e+09 8.04133145e+10]
- [6.47789372e+09 1.42604754e+11 6.47789372e+09 1.42604754e+11
-  6.12055421e+09 8.04133145e+10]
- [3.36547267e+09 6.70110954e+10 3.36547267e+09 6.70110954e+10
-  4.44055421e+09 8.04133145e+10]]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15939,7 +15917,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>towerse.constr_d_to_t</t>
+          <t>fixedse.soil.k</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -15947,10 +15925,33 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[175.8269222 309.5937113 280.        240.       ]</t>
+          <t>[[3.12287102e+10 1.86194695e+13 3.12287102e+10 1.86194695e+13
+  1.93645482e+10 7.02280854e+10]
+ [2.81162891e+10 1.31722533e+13 2.81162891e+10 1.31722533e+13
+  1.76845482e+10 7.02280854e+10]
+ [2.50038681e+10 8.91970370e+12 2.50038681e+10 8.91970370e+12
+  1.60045482e+10 7.02280854e+10]
+ [2.18914470e+10 5.71248746e+12 2.18914470e+10 5.71248746e+12
+  1.43245482e+10 7.02280854e+10]
+ [1.87790260e+10 3.40127123e+12 1.87790260e+10 3.40127123e+12
+  1.26445482e+10 7.02280854e+10]
+ [1.56666049e+10 1.83672167e+12 1.56666049e+10 1.83672167e+12
+  1.09645482e+10 7.02280854e+10]
+ [1.25541839e+10 8.69505434e+11 1.25541839e+10 8.69505434e+11
+  9.28454815e+09 7.02280854e+10]
+ [9.44176281e+09 3.50289202e+11 9.44176281e+09 3.50289202e+11
+  7.60454815e+09 7.02280854e+10]
+ [6.32934176e+09 1.29739637e+11 6.32934176e+09 1.29739637e+11
+  5.92454815e+09 7.02280854e+10]
+ [3.21692071e+09 5.85234045e+10 3.21692071e+09 5.85234045e+10
+  4.24454815e+09 7.02280854e+10]]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15958,7 +15959,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>towerse.constr_taper</t>
+          <t>towerse.constr_d_to_t</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -15969,7 +15970,7 @@
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[332.03115751 454.77301642 377.38650821 300.        ]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15977,7 +15978,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>towerse.slope</t>
+          <t>towerse.constr_taper</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -15988,7 +15989,7 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[1.         1.         0.65966975 1.        ]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15996,7 +15997,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>towerse.thickness_slope</t>
+          <t>towerse.slope</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -16007,7 +16008,7 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[0.56792795 0.96748035 1.        ]</t>
+          <t>[1.         1.         0.65966975 1.        ]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -16015,7 +16016,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>towerse.member.ca_usr_grid_full</t>
+          <t>towerse.thickness_slope</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16026,7 +16027,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.73010303 1.         1.        ]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -16034,7 +16035,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>towerse.member.cd_usr_grid_full</t>
+          <t>towerse.member.ca_usr_grid_full</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16053,7 +16054,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>towerse.member.nu_full</t>
+          <t>towerse.member.cd_usr_grid_full</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16064,41 +16065,35 @@
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>towerse.member.nu_full</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
           <t>[0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405
  0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405]</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>towerse.member.nodes_r</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>[4.         4.         4.         4.         4.         4.
- 4.         3.66666667 3.33333333 3.         3.         3.
- 3.        ]</t>
-        </is>
-      </c>
       <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>towerse.member.center_of_buoyancy</t>
+          <t>towerse.member.nodes_r</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16113,7 +16108,9 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0. 0. 0.]</t>
+          <t>[4.54773016 4.54773016 4.54773016 4.54773016 4.54773016 4.54773016
+ 4.54773016 4.03182011 3.51591005 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16121,7 +16118,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>towerse.member.displacement</t>
+          <t>towerse.member.center_of_buoyancy</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16131,12 +16128,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>m**3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16144,7 +16141,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>towerse.member.buoyancy_force</t>
+          <t>towerse.member.displacement</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16154,7 +16151,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m**3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16167,7 +16164,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>towerse.member.idx_cb</t>
+          <t>towerse.member.buoyancy_force</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16175,7 +16172,11 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16186,7 +16187,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>towerse.member.Awater</t>
+          <t>towerse.member.idx_cb</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16194,11 +16195,7 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16209,7 +16206,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>towerse.member.Iwaterx</t>
+          <t>towerse.member.Awater</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16219,7 +16216,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>m**4</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16232,7 +16229,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>towerse.member.Iwatery</t>
+          <t>towerse.member.Iwaterx</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16255,7 +16252,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>towerse.member.added_mass</t>
+          <t>towerse.member.Iwatery</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16265,12 +16262,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m**4</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16278,7 +16275,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>towerse.member.waterline_centroid</t>
+          <t>towerse.member.added_mass</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -16288,12 +16285,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16301,57 +16298,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>towerse.member.waterline_centroid</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[0. 0.]</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
           <t>towerse.member.z_dim</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>[ 15.          27.78666667  40.57333333  53.36        71.62666667
   89.89333333 108.16       119.12       130.08       141.04
  148.34666667 155.65333333 162.96      ]</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>towerse.member.d_eff</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
-        </is>
-      </c>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>towerse.tower_section_height</t>
+          <t>towerse.member.d_eff</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -16366,7 +16361,9 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[38.36 54.8  32.88 21.92]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033 8.06364022 7.03182011 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16374,7 +16371,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>towerse.member.sigma_ult</t>
+          <t>towerse.tower_section_height</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -16384,12 +16381,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
+          <t>[38.36 54.8  32.88 21.92]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16397,7 +16394,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_exp</t>
+          <t>towerse.member.sigma_ult</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -16405,10 +16402,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3.]</t>
+          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16416,7 +16417,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_A</t>
+          <t>towerse.member.wohler_exp</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -16427,7 +16428,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
+          <t>[3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16435,7 +16436,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_density</t>
+          <t>towerse.member.wohler_A</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -16443,14 +16444,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16458,7 +16455,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_unit_cost</t>
+          <t>towerse.member.ballast_density</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -16468,7 +16465,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16481,7 +16478,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>towerse.z_param</t>
+          <t>towerse.member.ballast_unit_cost</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -16491,12 +16488,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16504,7 +16501,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>towerse.member.sec_loc</t>
+          <t>towerse.z_param</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -16512,22 +16509,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.         0.39534884 0.76744186 1.        ]</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>normalized sectional location</t>
-        </is>
-      </c>
+          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>towerse.member.str_tw</t>
+          <t>towerse.member.sec_loc</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -16535,26 +16532,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>structural twist of section</t>
+          <t>normalized sectional location</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>towerse.member.tw_iner</t>
+          <t>towerse.member.str_tw</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -16574,14 +16567,14 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>inertial twist of section</t>
+          <t>structural twist of section</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>towerse.member.mass_den</t>
+          <t>towerse.member.tw_iner</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16591,24 +16584,24 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>kg/m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>[9489.55377232 5402.70230154 4572.06581752 3916.57251035]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>sectional mass per unit length</t>
+          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_iner</t>
+          <t>towerse.member.mass_den</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16618,24 +16611,24 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>kg*m</t>
+          <t>kg/m</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[75057.80555751 42943.30519543 27804.58963809 17478.31679189]</t>
+          <t>[6513.11602426 4759.12280386 3947.50139267 3135.87998151]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_iner</t>
+          <t>towerse.member.foreaft_iner</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16650,19 +16643,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[75057.80555751 42943.30519543 27804.58963809 17478.31679189]</t>
+          <t>[66947.17031474 48997.77498911 27961.6925932  14017.69710534]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_stff</t>
+          <t>towerse.member.sideside_iner</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16672,24 +16665,24 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N*m**2</t>
+          <t>kg*m</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[1.79865338e+12 1.02907513e+12 6.66297379e+11 4.18842962e+11]</t>
+          <t>[66947.17031474 48997.77498911 27961.6925932  14017.69710534]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_stff</t>
+          <t>towerse.member.foreaft_stff</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16704,19 +16697,19 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[1.79865338e+12 1.02907513e+12 6.66297379e+11 4.18842962e+11]</t>
+          <t>[1.60429356e+12 1.17416187e+12 6.70062128e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>towerse.member.tor_stff</t>
+          <t>towerse.member.sideside_stff</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16731,19 +16724,19 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[1.42633213e+12 8.16056578e+11 5.28373822e+11 3.32142469e+11]</t>
+          <t>[1.60429356e+12 1.17416187e+12 6.70062128e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sectional torsional stiffness</t>
+          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>towerse.member.axial_stff</t>
+          <t>towerse.member.tor_stff</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16753,24 +16746,24 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N*m**2</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[2.27403637e+11 1.29468064e+11 1.09563044e+11 9.38550805e+10]</t>
+          <t>[1.27220479e+12 9.31110366e+11 5.31359267e+11 2.66379914e+11]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>sectional axial stiffness</t>
+          <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>towerse.member.cg_offst</t>
+          <t>towerse.member.axial_stff</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16780,24 +16773,24 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[1.56077547e+11 1.14045598e+11 9.45962471e+10 7.51468963e+10]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>offset from the sectional center of mass</t>
+          <t>sectional axial stiffness</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>towerse.member.sc_offst</t>
+          <t>towerse.member.cg_offst</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16817,14 +16810,14 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>offset from the sectional shear center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>towerse.member.tc_offst</t>
+          <t>towerse.member.sc_offst</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16844,14 +16837,14 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>towerse.member.axial_load2stress</t>
+          <t>towerse.member.tc_offst</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16861,23 +16854,24 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.87949341 0.44477719 0.44477719 0.        ]
- [0.         0.         1.54478251 0.77739708 0.77739708 0.        ]
- [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
- [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>towerse.member.shear_load2stress</t>
+          <t>towerse.member.axial_load2stress</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16892,10 +16886,10 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[1.44476908 1.44476908 0.         0.         0.         0.2223886 ]
- [2.54049576 2.54049576 0.         0.         0.         0.38869854]
- [3.00158224 3.00158224 0.         0.         0.         0.52529097]
- [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
+          <t>[[0.         0.         1.2814143  0.56694489 0.56694489 0.        ]
+ [0.         0.         1.75368452 0.77463428 0.77463428 0.        ]
+ [0.         0.         2.11424878 1.12642244 1.12642244 0.        ]
+ [0.         0.         2.6614539  1.78617071 1.78617071 0.        ]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16903,7 +16897,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>towerse.member.labor_hours</t>
+          <t>towerse.member.shear_load2stress</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16913,12 +16907,15 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[538.59564641]</t>
+          <t>[[2.10757626 2.10757626 0.         0.         0.         0.28347244]
+ [2.88538063 2.88538063 0.         0.         0.         0.38731714]
+ [3.47792553 3.47792553 0.         0.         0.         0.56321122]
+ [4.37673138 4.37673138 0.         0.         0.         0.89308536]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16926,7 +16923,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.member.labor_hours</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16936,12 +16933,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[2464111.67540486]</t>
+          <t>[488.22999564]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16949,7 +16946,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>towerse.member.section_D</t>
+          <t>towerse.tower_cost</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16959,13 +16956,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
+          <t>[2103960.1834303]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -16973,7 +16969,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>towerse.member.section_t</t>
+          <t>towerse.member.section_D</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16988,8 +16984,8 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.04868424 0.04868424 0.04868424 0.02764914 0.02764914 0.02764914
- 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 8.57955027 7.54773016 6.51591005 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -16997,54 +16993,55 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
+          <t>towerse.member.section_t</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[0.02931093 0.02931093 0.02931093 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
           <t>towerse.member.section_sigma_y</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>[3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08
  3.45e+08 3.45e+08 3.45e+08 3.45e+08]</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>towerse.transition_piece_height</t>
+          <t>towerse.height_constraint</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17059,7 +17056,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>[15.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -17067,7 +17064,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>towerse.z_start</t>
+          <t>towerse.transition_piece_height</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17090,7 +17087,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>airfoils.ac</t>
+          <t>towerse.z_start</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17098,22 +17095,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>1D array of the aerodynamic centers of each airfoil.</t>
-        </is>
-      </c>
+          <t>[15.]</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>airfoils.r_thick</t>
+          <t>airfoils.ac</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17124,32 +17121,55 @@
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1D array of the relative thicknesses of each airfoil.</t>
+          <t>1D array of the aerodynamic centers of each airfoil.</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
+          <t>airfoils.r_thick</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1D array of the relative thicknesses of each airfoil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
           <t>airfoils.aoa</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>[-3.14159265 -3.08923278 -3.0368729  -2.98451302 -2.93215314 -2.87979327
  -2.82743339 -2.77507351 -2.72271363 -2.67035376 -2.61799388 -2.565634
@@ -17187,39 +17207,16 @@
   3.08923278  3.14159265]</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>1D array of the angles of attack used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>airfoils.Re</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>[1000000.]</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>airfoils.cl</t>
+          <t>airfoils.Re</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17229,6 +17226,29 @@
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
+        <is>
+          <t>[1000000.]</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>airfoils.cl</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>[[[[ 1.27742998e-02]]
   [[ 1.42693272e-01]]
@@ -17275,25 +17295,25 @@
   [[ 1.53642952e-08]]]]</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>4D array with the lift coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>airfoils.cd</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>[[[[0.06162547]]
   [[0.06296798]]
@@ -17340,25 +17360,25 @@
   [[0.0198    ]]]]</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>4D array with the drag coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>airfoils.cm</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>[[[[ 3.70854259e-04]]
   [[ 5.78906867e-02]]
@@ -17405,25 +17425,25 @@
   [[ 7.70271560e-09]]]]</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>4D array with the moment coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>airfoils.coord_xy</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>[[[ 1.00000000e+00 -3.47000010e-03]
   [ 9.82059782e-01  4.47998271e-04]
@@ -17470,43 +17490,16 @@
   [ 1.00000000e+00  1.56966672e-03]]]</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>3D array of the x and y airfoil coordinates of the n_af airfoils.</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>airfoils.name</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>configuration.rated_power</t>
+          <t>airfoils.name</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -17516,24 +17509,24 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Unavailable</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[15000000.]</t>
+          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Electrical rated power of the generator.</t>
+          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>configuration.lifetime</t>
+          <t>configuration.rated_power</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -17543,24 +17536,24 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[15000000.]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Turbine design lifetime.</t>
+          <t>Electrical rated power of the generator.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>configuration.rotor_diameter_user</t>
+          <t>configuration.lifetime</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -17570,24 +17563,24 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[250.]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
+          <t>Turbine design lifetime.</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>configuration.hub_height_user</t>
+          <t>configuration.rotor_diameter_user</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -17602,19 +17595,19 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[162.96]</t>
+          <t>[250.]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
+          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>configuration.ws_class</t>
+          <t>configuration.hub_height_user</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17624,24 +17617,24 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>[162.96]</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
+          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>configuration.turb_class</t>
+          <t>configuration.ws_class</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17656,19 +17649,19 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
+          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>configuration.gearbox_type</t>
+          <t>configuration.turb_class</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17683,19 +17676,19 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
+          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>configuration.rotor_orientation</t>
+          <t>configuration.gearbox_type</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17710,19 +17703,19 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>upwind</t>
+          <t>direct_drive</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Rotor orientation, either upwind or downwind.</t>
+          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>configuration.upwind</t>
+          <t>configuration.rotor_orientation</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17735,19 +17728,21 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D667" t="b">
-        <v>1</v>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>upwind</t>
+        </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Convenient boolean for upwind (True) or downwind (False).</t>
+          <t>Rotor orientation, either upwind or downwind.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>configuration.n_blades</t>
+          <t>configuration.upwind</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17760,19 +17755,19 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D668" t="n">
-        <v>3</v>
+      <c r="D668" t="b">
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Number of blades of the rotor.</t>
+          <t>Convenient boolean for upwind (True) or downwind (False).</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>control.V_in</t>
+          <t>configuration.n_blades</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17782,24 +17777,22 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>m/s</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
+          <t>Number of blades of the rotor.</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>control.V_out</t>
+          <t>control.V_in</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17814,19 +17807,19 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
+          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>control.minOmega</t>
+          <t>control.V_out</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17836,24 +17829,24 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[0.52359878]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Minimum allowed rotor speed.</t>
+          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>control.maxOmega</t>
+          <t>control.minOmega</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17868,19 +17861,19 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>[0.79168135]</t>
+          <t>[0.52359878]</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Maximum allowed rotor speed.</t>
+          <t>Minimum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>control.max_TS</t>
+          <t>control.maxOmega</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17890,24 +17883,24 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[0.79168135]</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Maximum allowed blade tip speed.</t>
+          <t>Maximum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>control.max_pitch_rate</t>
+          <t>control.max_TS</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17917,24 +17910,24 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[0.03490659]</t>
+          <t>[95.]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Maximum allowed blade pitch rate</t>
+          <t>Maximum allowed blade tip speed.</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>control.max_torque_rate</t>
+          <t>control.max_pitch_rate</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17944,24 +17937,24 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N*m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[1500000.]</t>
+          <t>[0.03490659]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Maximum allowed generator torque rate</t>
+          <t>Maximum allowed blade pitch rate</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>control.rated_TSR</t>
+          <t>control.max_torque_rate</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17969,22 +17962,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>N*m/s</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[1500000.]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Constant tip speed ratio in region II.</t>
+          <t>Maximum allowed generator torque rate</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>control.rated_pitch</t>
+          <t>control.rated_TSR</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17992,26 +17989,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[9.]</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Constant pitch angle in region II.</t>
+          <t>Constant tip speed ratio in region II.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>costs.offset_tcc_per_kW</t>
+          <t>control.rated_pitch</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18021,7 +18014,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -18031,14 +18024,14 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Offset to turbine capital cost</t>
+          <t>Constant pitch angle in region II.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>costs.bos_per_kW</t>
+          <t>costs.offset_tcc_per_kW</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18053,19 +18046,19 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>[4053.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Balance of station/plant capital cost</t>
+          <t>Offset to turbine capital cost</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>costs.opex_per_kW</t>
+          <t>costs.bos_per_kW</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18075,24 +18068,24 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[137.]</t>
+          <t>[4053.]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Average annual operational expenditures of the turbine</t>
+          <t>Balance of station/plant capital cost</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>costs.wake_loss_factor</t>
+          <t>costs.opex_per_kW</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18100,22 +18093,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>[0.15]</t>
+          <t>[137.]</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>The losses in AEP due to waked conditions</t>
+          <t>Average annual operational expenditures of the turbine</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>costs.fixed_charge_rate</t>
+          <t>costs.wake_loss_factor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18126,19 +18123,19 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[0.056]</t>
+          <t>[0.15]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Fixed charge rate for coe calculation</t>
+          <t>The losses in AEP due to waked conditions</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>costs.labor_rate</t>
+          <t>costs.fixed_charge_rate</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18146,22 +18143,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>USD/h</t>
-        </is>
-      </c>
+      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>[58.8]</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
+          <t>[0.056]</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Fixed charge rate for coe calculation</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>costs.painting_rate</t>
+          <t>costs.labor_rate</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18171,12 +18168,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>USD/m**2</t>
+          <t>USD/h</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[58.8]</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -18184,7 +18181,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>costs.blade_mass_cost_coeff</t>
+          <t>costs.painting_rate</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18194,12 +18191,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/m**2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>[14.6]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -18207,7 +18204,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>costs.hub_mass_cost_coeff</t>
+          <t>costs.blade_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18222,7 +18219,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>[3.9]</t>
+          <t>[14.6]</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
@@ -18230,7 +18227,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>costs.pitch_system_mass_cost_coeff</t>
+          <t>costs.hub_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18245,7 +18242,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>[22.1]</t>
+          <t>[3.9]</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -18253,7 +18250,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>costs.spinner_mass_cost_coeff</t>
+          <t>costs.pitch_system_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18268,7 +18265,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>[11.1]</t>
+          <t>[22.1]</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -18276,7 +18273,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>costs.lss_mass_cost_coeff</t>
+          <t>costs.spinner_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18291,7 +18288,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[11.9]</t>
+          <t>[11.1]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18299,7 +18296,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>costs.bearing_mass_cost_coeff</t>
+          <t>costs.lss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18314,7 +18311,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[4.5]</t>
+          <t>[11.9]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18322,7 +18319,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>costs.gearbox_torque_cost</t>
+          <t>costs.bearing_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18332,12 +18329,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>USD/kN/m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[4.5]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18345,7 +18342,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>costs.hss_mass_cost_coeff</t>
+          <t>costs.gearbox_torque_cost</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18355,12 +18352,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kN/m</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[6.8]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -18368,7 +18365,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>costs.generator_mass_cost_coeff</t>
+          <t>costs.hss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -18383,7 +18380,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>[12.4]</t>
+          <t>[6.8]</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -18391,7 +18388,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>costs.bedplate_mass_cost_coeff</t>
+          <t>costs.generator_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -18406,7 +18403,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[12.4]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -18414,7 +18411,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>costs.yaw_mass_cost_coeff</t>
+          <t>costs.bedplate_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -18429,7 +18426,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[8.3]</t>
+          <t>[2.9]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18437,7 +18434,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>costs.converter_mass_cost_coeff</t>
+          <t>costs.yaw_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -18452,7 +18449,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>[18.8]</t>
+          <t>[8.3]</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -18460,7 +18457,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>costs.transformer_mass_cost_coeff</t>
+          <t>costs.converter_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -18483,7 +18480,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>costs.hvac_mass_cost_coeff</t>
+          <t>costs.transformer_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -18498,7 +18495,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[124.]</t>
+          <t>[18.8]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18506,7 +18503,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>costs.cover_mass_cost_coeff</t>
+          <t>costs.hvac_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -18521,7 +18518,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>[5.7]</t>
+          <t>[124.]</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -18529,7 +18526,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>costs.elec_connec_machine_rating_cost_coeff</t>
+          <t>costs.cover_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -18539,12 +18536,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[41.85]</t>
+          <t>[5.7]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -18552,7 +18549,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>costs.platforms_mass_cost_coeff</t>
+          <t>costs.elec_connec_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -18562,12 +18559,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[17.1]</t>
+          <t>[41.85]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18575,7 +18572,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>costs.tower_mass_cost_coeff</t>
+          <t>costs.platforms_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -18590,7 +18587,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[2.75080266]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -18598,7 +18595,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>costs.controls_machine_rating_cost_coeff</t>
+          <t>costs.tower_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18608,12 +18605,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[21.15]</t>
+          <t>[2.74873542]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18621,7 +18618,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>costs.crane_cost</t>
+          <t>costs.controls_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18631,12 +18628,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[12000.]</t>
+          <t>[21.15]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18644,7 +18641,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>costs.electricity_price</t>
+          <t>costs.crane_cost</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18654,12 +18651,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>USD/kW/h</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[0.04]</t>
+          <t>[12000.]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18667,7 +18664,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>costs.reserve_margin_price</t>
+          <t>costs.electricity_price</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18677,12 +18674,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW/h</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[120.]</t>
+          <t>[0.04]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18690,7 +18687,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>costs.capacity_credit</t>
+          <t>costs.reserve_margin_price</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18698,10 +18695,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18709,7 +18710,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>costs.benchmark_price</t>
+          <t>costs.capacity_credit</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18717,14 +18718,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>USD/kW/h</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[0.071]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18732,7 +18729,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>costs.turbine_number</t>
+          <t>costs.benchmark_price</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18742,22 +18739,20 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>40</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>Number of turbines at plant</t>
-        </is>
-      </c>
+          <t>USD/kW/h</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>[0.071]</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>env.rho_air</t>
+          <t>costs.turbine_number</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18767,24 +18762,22 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>[1.225]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>40</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Density of air</t>
+          <t>Number of turbines at plant</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>env.mu_air</t>
+          <t>env.rho_air</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18794,24 +18787,24 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[1.81e-05]</t>
+          <t>[1.225]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of air</t>
+          <t>Density of air</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>env.shear_exp</t>
+          <t>env.mu_air</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18819,22 +18812,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>kg/m/s</t>
+        </is>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[0.12]</t>
+          <t>[1.81e-05]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Shear exponent of the wind.</t>
+          <t>Dynamic viscosity of air</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>env.speed_sound_air</t>
+          <t>env.shear_exp</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18842,26 +18839,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[340.]</t>
+          <t>[0.12]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Speed of sound in air.</t>
+          <t>Shear exponent of the wind.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>env.weibull_k</t>
+          <t>env.speed_sound_air</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18869,22 +18862,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[2.]</t>
+          <t>[340.]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Shape parameter of the Weibull probability density function of the wind.</t>
+          <t>Speed of sound in air.</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>env.rho_water</t>
+          <t>env.weibull_k</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18892,26 +18889,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[1025.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Density of ocean water</t>
+          <t>Shape parameter of the Weibull probability density function of the wind.</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>env.mu_water</t>
+          <t>env.rho_water</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18921,24 +18914,24 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.0013351]</t>
+          <t>[1025.]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of ocean water</t>
+          <t>Density of ocean water</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>env.water_depth</t>
+          <t>env.mu_water</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18948,24 +18941,24 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg/m/s</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[0.0013351]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
+          <t>Dynamic viscosity of ocean water</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>env.Hsig_wave</t>
+          <t>env.water_depth</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18980,19 +18973,19 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[4.52]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Significant wave height</t>
+          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>env.Tsig_wave</t>
+          <t>env.Hsig_wave</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -19002,24 +18995,24 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[9.45]</t>
+          <t>[4.52]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Significant wave period</t>
+          <t>Significant wave height</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>env.G_soil</t>
+          <t>env.Tsig_wave</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19029,24 +19022,24 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/m**2</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>[1.4e+08]</t>
+          <t>[9.45]</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Shear stress of soil</t>
+          <t>Significant wave period</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>env.nu_soil</t>
+          <t>env.G_soil</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19054,35 +19047,62 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>N/m**2</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[1.4e+08]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Poisson ratio of soil</t>
+          <t>Shear stress of soil</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>env.nu_soil</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Poisson ratio of soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>high_level_tower_props.tower_ref_axis</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>[[  0.     0.    15.  ]
  [  0.     0.    53.36]
@@ -19091,132 +19111,132 @@
  [  0.     0.   162.96]]</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>high_level_tower_props.hub_height</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>[162.96]</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
+          <t>high_level_tower_props.hub_height</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>[162.96]</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
           <t>materials.ply_t</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.005      0.00515873
  0.001      0.001      0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>1D array of the ply thicknesses of the materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>materials.fvf</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.57       0.10769231
  0.57       0.57       0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber volume fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>materials.fwf</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.74506827 0.15889029
  0.74506827 0.74506827 0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber weight- fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>materials.E</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>[[3.440e+09 3.440e+09 3.440e+09]
  [2.000e+11 2.000e+11 2.000e+11]
@@ -19231,29 +19251,29 @@
  [4.560e+06 4.560e+06 4.560e+06]]</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>2D array of the Youngs moduli of the materials. Each row represents a material, the three columns represent E11, E22 and E33.</t>
         </is>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>materials.G</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>[[1.32300000e+09 1.32300000e+09 1.32300000e+09]
  [7.93000000e+10 7.93000000e+10 7.93000000e+10]
@@ -19268,25 +19288,25 @@
  [1.52000000e+06 1.52000000e+06 1.52000000e+06]]</t>
         </is>
       </c>
-      <c r="E728" t="inlineStr">
+      <c r="E729" t="inlineStr">
         <is>
           <t>2D array of the shear moduli of the materials. Each row represents a material, the three columns represent G12, G13 and G23.</t>
         </is>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>materials.nu</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
         <is>
           <t>[[0.3   0.3   0.3  ]
  [0.3   0.3   0.3  ]
@@ -19301,29 +19321,29 @@
  [0.49  0.49  0.49 ]]</t>
         </is>
       </c>
-      <c r="E729" t="inlineStr">
+      <c r="E730" t="inlineStr">
         <is>
           <t>2D array of the Poisson ratio of the materials. Each row represents a material, the three columns represent nu12, nu13 and nu23.</t>
         </is>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>materials.Xt</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>[[7.400e+01 7.400e+01 7.400e+01]
  [4.500e+08 4.500e+08 4.500e+08]
@@ -19338,29 +19358,29 @@
  [6.900e+05 6.900e+05 6.900e+05]]</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Tensile Strength (UTS) of the materials. Each row represents a material, the three columns represent Xt12, Xt13 and Xt23.</t>
         </is>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>materials.Xc</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>[[8.7000e+01 8.7000e+01 8.7000e+01]
  [4.5000e+08 4.5000e+08 4.5000e+08]
@@ -19375,29 +19395,29 @@
  [4.0000e+05 4.0000e+05 4.0000e+05]]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Compressive Strength (UCS) of the materials. Each row represents a material, the three columns represent Xc12, Xc13 and Xc23.</t>
         </is>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>materials.S</t>
         </is>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
+      <c r="D733" t="inlineStr">
         <is>
           <t>[[2.126e+07 2.126e+07 2.126e+07]
  [0.000e+00 0.000e+00 0.000e+00]
@@ -19412,67 +19432,44 @@
  [3.100e+05 3.100e+05 3.100e+05]]</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E733" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Shear Strength (USS) of the materials. Each row represents a material, the three columns represent S12, S13 and S23.</t>
         </is>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>materials.sigma_y</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
         <is>
           <t>[0.00e+00 3.45e+08 4.85e+08 2.65e+08 0.00e+00 0.00e+00 0.00e+00 0.00e+00
  0.00e+00 0.00e+00 0.00e+00]</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E734" t="inlineStr">
         <is>
           <t>Yield stress of the material (in the principle direction for composites).</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>materials.wohler_exp</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>materials.wohler_intercept</t>
+          <t>materials.wohler_exp</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -19482,49 +19479,45 @@
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
+        <is>
+          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>materials.wohler_intercept</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
         <is>
           <t>[8.70000000e+01 3.55346484e+10 3.55346484e+10 3.55346484e+10
  6.09200000e+08 1.54600000e+09 1.13200000e+08 4.48900000e+08
  2.08300000e+06 0.00000000e+00 6.90000000e+05]</t>
         </is>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>Stress-intercept (A) of S-N Wohler fatigue curve in the form of S = A*N^-(1/m), taken as ultimate stress unless otherwise specified.</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>materials.unit_cost</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>materials.waste</t>
+          <t>materials.unit_cost</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -19532,128 +19525,128 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>materials.waste</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>materials.roll_mass</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>[  0.       0.       0.       0.       0.       0.     181.4368 181.4368
    0.       0.       0.    ]</t>
         </is>
       </c>
-      <c r="E738" t="inlineStr">
+      <c r="E739" t="inlineStr">
         <is>
           <t>1D array of the roll mass of the composite fabrics. Non-composite materials are kept at 0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>materials.orth</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
+          <t>materials.orth</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
           <t>monopile.s</t>
         </is>
       </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr">
         <is>
           <t>[0.         0.40909091 0.59090909 0.77272727 0.86363636 0.95454545
  1.        ]</t>
         </is>
       </c>
-      <c r="E740" t="inlineStr">
+      <c r="E741" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>monopile.height</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D741" t="inlineStr">
-        <is>
-          <t>[110.]</t>
-        </is>
-      </c>
-      <c r="E741" t="inlineStr">
-        <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>monopile.length</t>
+          <t>monopile.height</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -19673,14 +19666,14 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>monopile.foundation_height</t>
+          <t>monopile.length</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19695,19 +19688,19 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[-95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Foundation height in respect to the ground level.</t>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>monopile.diameter</t>
+          <t>monopile.foundation_height</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19722,20 +19715,19 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
- 9.21296284]</t>
+          <t>[-95.]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
+          <t>Foundation height in respect to the ground level.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>monopile.layer_thickness</t>
+          <t>monopile.diameter</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19750,19 +19742,20 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[9.09546033 9.09546033 9.09546033 9.09546033 9.09546033 9.09546033
+ 9.09546033]</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>monopile.outfitting_factor</t>
+          <t>monopile.layer_thickness</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19770,22 +19763,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_mass</t>
+          <t>monopile.outfitting_factor</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19793,26 +19790,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[100000.]</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>point mass of transition piece</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_cost</t>
+          <t>monopile.transition_piece_mass</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19822,24 +19815,24 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[500000.]</t>
+          <t>[100000.]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>cost of transition piece</t>
+          <t>point mass of transition piece</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>monopile.gravity_foundation_mass</t>
+          <t>monopile.transition_piece_cost</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19849,24 +19842,24 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[500000.]</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>extra mass of gravity foundation</t>
+          <t>cost of transition piece</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>monopile.layer_name</t>
+          <t>monopile.gravity_foundation_mass</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19876,24 +19869,24 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>['monopile_wall']</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>extra mass of gravity foundation</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>monopile.layer_mat</t>
+          <t>monopile.layer_name</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19908,32 +19901,59 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['monopile_wall']</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
+          <t>monopile.layer_mat</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
           <t>tower.ref_axis</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>[[  0.   0.  15.]
  [  0.   0.  50.]
@@ -19942,43 +19962,16 @@
  [  0.   0. 150.]]</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>tower.diameter</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>[8. 8. 8. 6. 6.]</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>tower.cd</t>
+          <t>tower.diameter</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19986,22 +19979,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[0.5 0.5 0.5 0.5 0.5]</t>
+          <t>[9.09546033 9.09546033 9.09546033 6.         6.        ]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>1D array of the drag coefficients defined along the tower height.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>tower.layer_thickness</t>
+          <t>tower.cd</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -20009,26 +20006,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[[0.06431794 0.02668064 0.025      0.025      0.025     ]]</t>
+          <t>[0.5 0.5 0.5 0.5 0.5]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the drag coefficients defined along the tower height.</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>tower.outfitting_factor</t>
+          <t>tower.layer_thickness</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20036,22 +20029,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.03478679 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>tower.layer_name</t>
+          <t>tower.outfitting_factor</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20059,26 +20056,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>['tower_wall']</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>tower.layer_mat</t>
+          <t>tower.layer_name</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20093,19 +20086,19 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['tower_wall']</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>tower_grid.s</t>
+          <t>tower.layer_mat</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -20113,22 +20106,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
+          <t>['steel']</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>tower_grid.height</t>
+          <t>tower_grid.s</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -20136,26 +20133,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[147.96]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>tower_grid.length</t>
+          <t>tower_grid.height</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -20175,32 +20168,59 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>tower_grid.length</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>[147.96]</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
           <t>tower_grid.foundation_height</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
+      <c r="D763" t="inlineStr">
         <is>
           <t>[15.]</t>
         </is>
       </c>
-      <c r="E762" t="inlineStr">
+      <c r="E763" t="inlineStr">
         <is>
           <t>Foundation height in respect to the ground level.</t>
         </is>
